--- a/ThietKe/Login.xlsx
+++ b/ThietKe/Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9eef513b679c526/Máy tính/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{DB3CC92D-D668-45D0-9280-B78A887339A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CAEE36-A0A8-4B1C-8D9E-9B50EEF6EF42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3BD1A-F71A-4142-B4DB-BA4B1AC83A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29ADC7FD-C96C-40F4-A327-3212198E3E4A}"/>
   </bookViews>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Login!$A$1:$AW$172</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -274,12 +285,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>Vui lòng nhập tài khoản</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập mật khẩu</t>
-  </si>
-  <si>
     <t>3. Xử lý đăng nhập</t>
   </si>
   <si>
@@ -336,22 +341,28 @@
     <t xml:space="preserve">Đăng nhập thành công </t>
   </si>
   <si>
-    <t>Đăng nhập thành công</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra lại email và password </t>
   </si>
   <si>
-    <t>Sai thông tin đăng nhập</t>
-  </si>
-  <si>
     <t>1. Nhấn textview "quên mật khẩu" để chuyển sang màn hình quên mật khẩu</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Message_Login_01</t>
+  </si>
+  <si>
+    <t>Message_Login_02</t>
+  </si>
+  <si>
+    <t>Message_Login_03</t>
+  </si>
+  <si>
+    <t>Message_Login_04</t>
   </si>
 </sst>
 </file>
@@ -1472,6 +1483,141 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1531,141 +1677,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1797,10 +1808,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2102,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AC83E4-A177-4B9D-A805-72C341674143}">
   <dimension ref="A1:BF174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A148" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT121" sqref="AT121:AW121"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A125" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AJ146" sqref="AJ146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2116,187 +2123,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="197" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="197" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="198" t="s">
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="204" t="s">
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="189"/>
-      <c r="AG1" s="189"/>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="189"/>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="190"/>
-      <c r="AM1" s="175" t="s">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="172" t="s">
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="175" t="s">
+      <c r="AP1" s="183"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="177">
+      <c r="AS1" s="186"/>
+      <c r="AT1" s="187">
         <v>44936</v>
       </c>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="179"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="189"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="191"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="205"/>
-      <c r="AB2" s="192"/>
-      <c r="AC2" s="192"/>
-      <c r="AD2" s="192"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="192"/>
-      <c r="AH2" s="192"/>
-      <c r="AI2" s="192"/>
-      <c r="AJ2" s="192"/>
-      <c r="AK2" s="192"/>
-      <c r="AL2" s="193"/>
-      <c r="AM2" s="180" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AN2" s="191"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="193"/>
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="185"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-      <c r="AW2" s="187"/>
+      <c r="AS2" s="191"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="197"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="206" t="s">
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="209" t="s">
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="210"/>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="212" t="s">
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="213"/>
-      <c r="AJ3" s="213"/>
-      <c r="AK3" s="213"/>
-      <c r="AL3" s="214"/>
-      <c r="AM3" s="209" t="s">
+      <c r="AI3" s="179"/>
+      <c r="AJ3" s="179"/>
+      <c r="AK3" s="179"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="210"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="210"/>
-      <c r="AQ3" s="210"/>
-      <c r="AR3" s="210"/>
-      <c r="AS3" s="210"/>
-      <c r="AT3" s="210"/>
-      <c r="AU3" s="210"/>
-      <c r="AV3" s="210"/>
-      <c r="AW3" s="215"/>
+      <c r="AN3" s="176"/>
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="176"/>
+      <c r="AQ3" s="176"/>
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="181"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -3063,187 +3070,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="197" t="s">
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="189"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="189"/>
-      <c r="N41" s="189"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="197" t="s">
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="189"/>
-      <c r="T41" s="189"/>
-      <c r="U41" s="190"/>
-      <c r="V41" s="198" t="s">
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="199"/>
-      <c r="X41" s="199"/>
-      <c r="Y41" s="199"/>
-      <c r="Z41" s="200"/>
-      <c r="AA41" s="204" t="s">
+      <c r="W41" s="165"/>
+      <c r="X41" s="165"/>
+      <c r="Y41" s="165"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="189"/>
-      <c r="AC41" s="189"/>
-      <c r="AD41" s="189"/>
-      <c r="AE41" s="189"/>
-      <c r="AF41" s="189"/>
-      <c r="AG41" s="189"/>
-      <c r="AH41" s="189"/>
-      <c r="AI41" s="189"/>
-      <c r="AJ41" s="189"/>
-      <c r="AK41" s="189"/>
-      <c r="AL41" s="190"/>
-      <c r="AM41" s="175" t="s">
+      <c r="AB41" s="155"/>
+      <c r="AC41" s="155"/>
+      <c r="AD41" s="155"/>
+      <c r="AE41" s="155"/>
+      <c r="AF41" s="155"/>
+      <c r="AG41" s="155"/>
+      <c r="AH41" s="155"/>
+      <c r="AI41" s="155"/>
+      <c r="AJ41" s="155"/>
+      <c r="AK41" s="155"/>
+      <c r="AL41" s="156"/>
+      <c r="AM41" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="176"/>
-      <c r="AO41" s="172" t="s">
+      <c r="AN41" s="186"/>
+      <c r="AO41" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="173"/>
-      <c r="AQ41" s="174"/>
-      <c r="AR41" s="175" t="s">
+      <c r="AP41" s="183"/>
+      <c r="AQ41" s="184"/>
+      <c r="AR41" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="176"/>
-      <c r="AT41" s="177">
+      <c r="AS41" s="186"/>
+      <c r="AT41" s="187">
         <v>44936</v>
       </c>
-      <c r="AU41" s="178"/>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="179"/>
+      <c r="AU41" s="188"/>
+      <c r="AV41" s="188"/>
+      <c r="AW41" s="189"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="191"/>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="192"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="192"/>
-      <c r="O42" s="193"/>
-      <c r="P42" s="191"/>
-      <c r="Q42" s="192"/>
-      <c r="R42" s="192"/>
-      <c r="S42" s="192"/>
-      <c r="T42" s="192"/>
-      <c r="U42" s="193"/>
-      <c r="V42" s="201"/>
-      <c r="W42" s="202"/>
-      <c r="X42" s="202"/>
-      <c r="Y42" s="202"/>
-      <c r="Z42" s="203"/>
-      <c r="AA42" s="205"/>
-      <c r="AB42" s="192"/>
-      <c r="AC42" s="192"/>
-      <c r="AD42" s="192"/>
-      <c r="AE42" s="192"/>
-      <c r="AF42" s="192"/>
-      <c r="AG42" s="192"/>
-      <c r="AH42" s="192"/>
-      <c r="AI42" s="192"/>
-      <c r="AJ42" s="192"/>
-      <c r="AK42" s="192"/>
-      <c r="AL42" s="193"/>
-      <c r="AM42" s="180" t="s">
+      <c r="A42" s="157"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="159"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="158"/>
+      <c r="R42" s="158"/>
+      <c r="S42" s="158"/>
+      <c r="T42" s="158"/>
+      <c r="U42" s="159"/>
+      <c r="V42" s="167"/>
+      <c r="W42" s="168"/>
+      <c r="X42" s="168"/>
+      <c r="Y42" s="168"/>
+      <c r="Z42" s="169"/>
+      <c r="AA42" s="171"/>
+      <c r="AB42" s="158"/>
+      <c r="AC42" s="158"/>
+      <c r="AD42" s="158"/>
+      <c r="AE42" s="158"/>
+      <c r="AF42" s="158"/>
+      <c r="AG42" s="158"/>
+      <c r="AH42" s="158"/>
+      <c r="AI42" s="158"/>
+      <c r="AJ42" s="158"/>
+      <c r="AK42" s="158"/>
+      <c r="AL42" s="159"/>
+      <c r="AM42" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="181"/>
-      <c r="AO42" s="182"/>
-      <c r="AP42" s="183"/>
-      <c r="AQ42" s="184"/>
-      <c r="AR42" s="180" t="s">
+      <c r="AN42" s="191"/>
+      <c r="AO42" s="192"/>
+      <c r="AP42" s="193"/>
+      <c r="AQ42" s="194"/>
+      <c r="AR42" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="181"/>
-      <c r="AT42" s="185"/>
-      <c r="AU42" s="186"/>
-      <c r="AV42" s="186"/>
-      <c r="AW42" s="187"/>
+      <c r="AS42" s="191"/>
+      <c r="AT42" s="195"/>
+      <c r="AU42" s="196"/>
+      <c r="AV42" s="196"/>
+      <c r="AW42" s="197"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="194"/>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="195"/>
-      <c r="O43" s="196"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="195"/>
-      <c r="R43" s="195"/>
-      <c r="S43" s="195"/>
-      <c r="T43" s="195"/>
-      <c r="U43" s="196"/>
-      <c r="V43" s="206" t="s">
+      <c r="A43" s="160"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="162"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="162"/>
+      <c r="V43" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="207"/>
-      <c r="X43" s="207"/>
-      <c r="Y43" s="207"/>
-      <c r="Z43" s="208"/>
-      <c r="AA43" s="209" t="s">
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="174"/>
+      <c r="AA43" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="210"/>
-      <c r="AC43" s="210"/>
-      <c r="AD43" s="210"/>
-      <c r="AE43" s="210"/>
-      <c r="AF43" s="210"/>
-      <c r="AG43" s="211"/>
-      <c r="AH43" s="212" t="s">
+      <c r="AB43" s="176"/>
+      <c r="AC43" s="176"/>
+      <c r="AD43" s="176"/>
+      <c r="AE43" s="176"/>
+      <c r="AF43" s="176"/>
+      <c r="AG43" s="177"/>
+      <c r="AH43" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="213"/>
-      <c r="AJ43" s="213"/>
-      <c r="AK43" s="213"/>
-      <c r="AL43" s="214"/>
-      <c r="AM43" s="209" t="s">
+      <c r="AI43" s="179"/>
+      <c r="AJ43" s="179"/>
+      <c r="AK43" s="179"/>
+      <c r="AL43" s="180"/>
+      <c r="AM43" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="210"/>
-      <c r="AO43" s="210"/>
-      <c r="AP43" s="210"/>
-      <c r="AQ43" s="210"/>
-      <c r="AR43" s="210"/>
-      <c r="AS43" s="210"/>
-      <c r="AT43" s="210"/>
-      <c r="AU43" s="210"/>
-      <c r="AV43" s="210"/>
-      <c r="AW43" s="215"/>
+      <c r="AN43" s="176"/>
+      <c r="AO43" s="176"/>
+      <c r="AP43" s="176"/>
+      <c r="AQ43" s="176"/>
+      <c r="AR43" s="176"/>
+      <c r="AS43" s="176"/>
+      <c r="AT43" s="176"/>
+      <c r="AU43" s="176"/>
+      <c r="AV43" s="176"/>
+      <c r="AW43" s="181"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -4985,187 +4992,187 @@
       <c r="AW80" s="7"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A81" s="188" t="s">
+      <c r="A81" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="189"/>
-      <c r="C81" s="189"/>
-      <c r="D81" s="189"/>
-      <c r="E81" s="189"/>
-      <c r="F81" s="189"/>
-      <c r="G81" s="189"/>
-      <c r="H81" s="189"/>
-      <c r="I81" s="190"/>
-      <c r="J81" s="197" t="s">
+      <c r="B81" s="155"/>
+      <c r="C81" s="155"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K81" s="189"/>
-      <c r="L81" s="189"/>
-      <c r="M81" s="189"/>
-      <c r="N81" s="189"/>
-      <c r="O81" s="190"/>
-      <c r="P81" s="197" t="s">
+      <c r="K81" s="155"/>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="156"/>
+      <c r="P81" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="189"/>
-      <c r="R81" s="189"/>
-      <c r="S81" s="189"/>
-      <c r="T81" s="189"/>
-      <c r="U81" s="190"/>
-      <c r="V81" s="198" t="s">
+      <c r="Q81" s="155"/>
+      <c r="R81" s="155"/>
+      <c r="S81" s="155"/>
+      <c r="T81" s="155"/>
+      <c r="U81" s="156"/>
+      <c r="V81" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W81" s="199"/>
-      <c r="X81" s="199"/>
-      <c r="Y81" s="199"/>
-      <c r="Z81" s="200"/>
-      <c r="AA81" s="204" t="s">
+      <c r="W81" s="165"/>
+      <c r="X81" s="165"/>
+      <c r="Y81" s="165"/>
+      <c r="Z81" s="166"/>
+      <c r="AA81" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB81" s="189"/>
-      <c r="AC81" s="189"/>
-      <c r="AD81" s="189"/>
-      <c r="AE81" s="189"/>
-      <c r="AF81" s="189"/>
-      <c r="AG81" s="189"/>
-      <c r="AH81" s="189"/>
-      <c r="AI81" s="189"/>
-      <c r="AJ81" s="189"/>
-      <c r="AK81" s="189"/>
-      <c r="AL81" s="190"/>
-      <c r="AM81" s="175" t="s">
+      <c r="AB81" s="155"/>
+      <c r="AC81" s="155"/>
+      <c r="AD81" s="155"/>
+      <c r="AE81" s="155"/>
+      <c r="AF81" s="155"/>
+      <c r="AG81" s="155"/>
+      <c r="AH81" s="155"/>
+      <c r="AI81" s="155"/>
+      <c r="AJ81" s="155"/>
+      <c r="AK81" s="155"/>
+      <c r="AL81" s="156"/>
+      <c r="AM81" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN81" s="176"/>
-      <c r="AO81" s="172" t="s">
+      <c r="AN81" s="186"/>
+      <c r="AO81" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP81" s="173"/>
-      <c r="AQ81" s="174"/>
-      <c r="AR81" s="175" t="s">
+      <c r="AP81" s="183"/>
+      <c r="AQ81" s="184"/>
+      <c r="AR81" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS81" s="176"/>
-      <c r="AT81" s="177">
+      <c r="AS81" s="186"/>
+      <c r="AT81" s="187">
         <v>44936</v>
       </c>
-      <c r="AU81" s="178"/>
-      <c r="AV81" s="178"/>
-      <c r="AW81" s="179"/>
+      <c r="AU81" s="188"/>
+      <c r="AV81" s="188"/>
+      <c r="AW81" s="189"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A82" s="191"/>
-      <c r="B82" s="192"/>
-      <c r="C82" s="192"/>
-      <c r="D82" s="192"/>
-      <c r="E82" s="192"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="192"/>
-      <c r="H82" s="192"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="191"/>
-      <c r="K82" s="192"/>
-      <c r="L82" s="192"/>
-      <c r="M82" s="192"/>
-      <c r="N82" s="192"/>
-      <c r="O82" s="193"/>
-      <c r="P82" s="191"/>
-      <c r="Q82" s="192"/>
-      <c r="R82" s="192"/>
-      <c r="S82" s="192"/>
-      <c r="T82" s="192"/>
-      <c r="U82" s="193"/>
-      <c r="V82" s="201"/>
-      <c r="W82" s="202"/>
-      <c r="X82" s="202"/>
-      <c r="Y82" s="202"/>
-      <c r="Z82" s="203"/>
-      <c r="AA82" s="205"/>
-      <c r="AB82" s="192"/>
-      <c r="AC82" s="192"/>
-      <c r="AD82" s="192"/>
-      <c r="AE82" s="192"/>
-      <c r="AF82" s="192"/>
-      <c r="AG82" s="192"/>
-      <c r="AH82" s="192"/>
-      <c r="AI82" s="192"/>
-      <c r="AJ82" s="192"/>
-      <c r="AK82" s="192"/>
-      <c r="AL82" s="193"/>
-      <c r="AM82" s="180" t="s">
+      <c r="A82" s="157"/>
+      <c r="B82" s="158"/>
+      <c r="C82" s="158"/>
+      <c r="D82" s="158"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="158"/>
+      <c r="H82" s="158"/>
+      <c r="I82" s="159"/>
+      <c r="J82" s="157"/>
+      <c r="K82" s="158"/>
+      <c r="L82" s="158"/>
+      <c r="M82" s="158"/>
+      <c r="N82" s="158"/>
+      <c r="O82" s="159"/>
+      <c r="P82" s="157"/>
+      <c r="Q82" s="158"/>
+      <c r="R82" s="158"/>
+      <c r="S82" s="158"/>
+      <c r="T82" s="158"/>
+      <c r="U82" s="159"/>
+      <c r="V82" s="167"/>
+      <c r="W82" s="168"/>
+      <c r="X82" s="168"/>
+      <c r="Y82" s="168"/>
+      <c r="Z82" s="169"/>
+      <c r="AA82" s="171"/>
+      <c r="AB82" s="158"/>
+      <c r="AC82" s="158"/>
+      <c r="AD82" s="158"/>
+      <c r="AE82" s="158"/>
+      <c r="AF82" s="158"/>
+      <c r="AG82" s="158"/>
+      <c r="AH82" s="158"/>
+      <c r="AI82" s="158"/>
+      <c r="AJ82" s="158"/>
+      <c r="AK82" s="158"/>
+      <c r="AL82" s="159"/>
+      <c r="AM82" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AN82" s="181"/>
-      <c r="AO82" s="182"/>
-      <c r="AP82" s="183"/>
-      <c r="AQ82" s="184"/>
-      <c r="AR82" s="180" t="s">
+      <c r="AN82" s="191"/>
+      <c r="AO82" s="192"/>
+      <c r="AP82" s="193"/>
+      <c r="AQ82" s="194"/>
+      <c r="AR82" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AS82" s="181"/>
-      <c r="AT82" s="185"/>
-      <c r="AU82" s="186"/>
-      <c r="AV82" s="186"/>
-      <c r="AW82" s="187"/>
+      <c r="AS82" s="191"/>
+      <c r="AT82" s="195"/>
+      <c r="AU82" s="196"/>
+      <c r="AV82" s="196"/>
+      <c r="AW82" s="197"/>
     </row>
     <row r="83" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A83" s="194"/>
-      <c r="B83" s="195"/>
-      <c r="C83" s="195"/>
-      <c r="D83" s="195"/>
-      <c r="E83" s="195"/>
-      <c r="F83" s="195"/>
-      <c r="G83" s="195"/>
-      <c r="H83" s="195"/>
-      <c r="I83" s="196"/>
-      <c r="J83" s="194"/>
-      <c r="K83" s="195"/>
-      <c r="L83" s="195"/>
-      <c r="M83" s="195"/>
-      <c r="N83" s="195"/>
-      <c r="O83" s="196"/>
-      <c r="P83" s="194"/>
-      <c r="Q83" s="195"/>
-      <c r="R83" s="195"/>
-      <c r="S83" s="195"/>
-      <c r="T83" s="195"/>
-      <c r="U83" s="196"/>
-      <c r="V83" s="206" t="s">
+      <c r="A83" s="160"/>
+      <c r="B83" s="161"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="161"/>
+      <c r="H83" s="161"/>
+      <c r="I83" s="162"/>
+      <c r="J83" s="160"/>
+      <c r="K83" s="161"/>
+      <c r="L83" s="161"/>
+      <c r="M83" s="161"/>
+      <c r="N83" s="161"/>
+      <c r="O83" s="162"/>
+      <c r="P83" s="160"/>
+      <c r="Q83" s="161"/>
+      <c r="R83" s="161"/>
+      <c r="S83" s="161"/>
+      <c r="T83" s="161"/>
+      <c r="U83" s="162"/>
+      <c r="V83" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W83" s="207"/>
-      <c r="X83" s="207"/>
-      <c r="Y83" s="207"/>
-      <c r="Z83" s="208"/>
-      <c r="AA83" s="209" t="s">
+      <c r="W83" s="173"/>
+      <c r="X83" s="173"/>
+      <c r="Y83" s="173"/>
+      <c r="Z83" s="174"/>
+      <c r="AA83" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="210"/>
-      <c r="AC83" s="210"/>
-      <c r="AD83" s="210"/>
-      <c r="AE83" s="210"/>
-      <c r="AF83" s="210"/>
-      <c r="AG83" s="211"/>
-      <c r="AH83" s="212" t="s">
+      <c r="AB83" s="176"/>
+      <c r="AC83" s="176"/>
+      <c r="AD83" s="176"/>
+      <c r="AE83" s="176"/>
+      <c r="AF83" s="176"/>
+      <c r="AG83" s="177"/>
+      <c r="AH83" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI83" s="213"/>
-      <c r="AJ83" s="213"/>
-      <c r="AK83" s="213"/>
-      <c r="AL83" s="214"/>
-      <c r="AM83" s="209" t="s">
+      <c r="AI83" s="179"/>
+      <c r="AJ83" s="179"/>
+      <c r="AK83" s="179"/>
+      <c r="AL83" s="180"/>
+      <c r="AM83" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN83" s="210"/>
-      <c r="AO83" s="210"/>
-      <c r="AP83" s="210"/>
-      <c r="AQ83" s="210"/>
-      <c r="AR83" s="210"/>
-      <c r="AS83" s="210"/>
-      <c r="AT83" s="210"/>
-      <c r="AU83" s="210"/>
-      <c r="AV83" s="210"/>
-      <c r="AW83" s="215"/>
+      <c r="AN83" s="176"/>
+      <c r="AO83" s="176"/>
+      <c r="AP83" s="176"/>
+      <c r="AQ83" s="176"/>
+      <c r="AR83" s="176"/>
+      <c r="AS83" s="176"/>
+      <c r="AT83" s="176"/>
+      <c r="AU83" s="176"/>
+      <c r="AV83" s="176"/>
+      <c r="AW83" s="181"/>
     </row>
     <row r="84" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="3"/>
@@ -6282,187 +6289,187 @@
       <c r="AW120" s="7"/>
     </row>
     <row r="121" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A121" s="188" t="s">
+      <c r="A121" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="189"/>
-      <c r="C121" s="189"/>
-      <c r="D121" s="189"/>
-      <c r="E121" s="189"/>
-      <c r="F121" s="189"/>
-      <c r="G121" s="189"/>
-      <c r="H121" s="189"/>
-      <c r="I121" s="190"/>
-      <c r="J121" s="197" t="s">
+      <c r="B121" s="155"/>
+      <c r="C121" s="155"/>
+      <c r="D121" s="155"/>
+      <c r="E121" s="155"/>
+      <c r="F121" s="155"/>
+      <c r="G121" s="155"/>
+      <c r="H121" s="155"/>
+      <c r="I121" s="156"/>
+      <c r="J121" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K121" s="189"/>
-      <c r="L121" s="189"/>
-      <c r="M121" s="189"/>
-      <c r="N121" s="189"/>
-      <c r="O121" s="190"/>
-      <c r="P121" s="197" t="s">
+      <c r="K121" s="155"/>
+      <c r="L121" s="155"/>
+      <c r="M121" s="155"/>
+      <c r="N121" s="155"/>
+      <c r="O121" s="156"/>
+      <c r="P121" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q121" s="189"/>
-      <c r="R121" s="189"/>
-      <c r="S121" s="189"/>
-      <c r="T121" s="189"/>
-      <c r="U121" s="190"/>
-      <c r="V121" s="198" t="s">
+      <c r="Q121" s="155"/>
+      <c r="R121" s="155"/>
+      <c r="S121" s="155"/>
+      <c r="T121" s="155"/>
+      <c r="U121" s="156"/>
+      <c r="V121" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W121" s="199"/>
-      <c r="X121" s="199"/>
-      <c r="Y121" s="199"/>
-      <c r="Z121" s="200"/>
-      <c r="AA121" s="204" t="s">
+      <c r="W121" s="165"/>
+      <c r="X121" s="165"/>
+      <c r="Y121" s="165"/>
+      <c r="Z121" s="166"/>
+      <c r="AA121" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB121" s="189"/>
-      <c r="AC121" s="189"/>
-      <c r="AD121" s="189"/>
-      <c r="AE121" s="189"/>
-      <c r="AF121" s="189"/>
-      <c r="AG121" s="189"/>
-      <c r="AH121" s="189"/>
-      <c r="AI121" s="189"/>
-      <c r="AJ121" s="189"/>
-      <c r="AK121" s="189"/>
-      <c r="AL121" s="190"/>
-      <c r="AM121" s="175" t="s">
+      <c r="AB121" s="155"/>
+      <c r="AC121" s="155"/>
+      <c r="AD121" s="155"/>
+      <c r="AE121" s="155"/>
+      <c r="AF121" s="155"/>
+      <c r="AG121" s="155"/>
+      <c r="AH121" s="155"/>
+      <c r="AI121" s="155"/>
+      <c r="AJ121" s="155"/>
+      <c r="AK121" s="155"/>
+      <c r="AL121" s="156"/>
+      <c r="AM121" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN121" s="176"/>
-      <c r="AO121" s="172" t="s">
+      <c r="AN121" s="186"/>
+      <c r="AO121" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP121" s="173"/>
-      <c r="AQ121" s="174"/>
-      <c r="AR121" s="175" t="s">
+      <c r="AP121" s="183"/>
+      <c r="AQ121" s="184"/>
+      <c r="AR121" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS121" s="176"/>
-      <c r="AT121" s="177">
+      <c r="AS121" s="186"/>
+      <c r="AT121" s="187">
         <v>44936</v>
       </c>
-      <c r="AU121" s="178"/>
-      <c r="AV121" s="178"/>
-      <c r="AW121" s="179"/>
+      <c r="AU121" s="188"/>
+      <c r="AV121" s="188"/>
+      <c r="AW121" s="189"/>
     </row>
     <row r="122" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A122" s="191"/>
-      <c r="B122" s="192"/>
-      <c r="C122" s="192"/>
-      <c r="D122" s="192"/>
-      <c r="E122" s="192"/>
-      <c r="F122" s="192"/>
-      <c r="G122" s="192"/>
-      <c r="H122" s="192"/>
-      <c r="I122" s="193"/>
-      <c r="J122" s="191"/>
-      <c r="K122" s="192"/>
-      <c r="L122" s="192"/>
-      <c r="M122" s="192"/>
-      <c r="N122" s="192"/>
-      <c r="O122" s="193"/>
-      <c r="P122" s="191"/>
-      <c r="Q122" s="192"/>
-      <c r="R122" s="192"/>
-      <c r="S122" s="192"/>
-      <c r="T122" s="192"/>
-      <c r="U122" s="193"/>
-      <c r="V122" s="201"/>
-      <c r="W122" s="202"/>
-      <c r="X122" s="202"/>
-      <c r="Y122" s="202"/>
-      <c r="Z122" s="203"/>
-      <c r="AA122" s="205"/>
-      <c r="AB122" s="192"/>
-      <c r="AC122" s="192"/>
-      <c r="AD122" s="192"/>
-      <c r="AE122" s="192"/>
-      <c r="AF122" s="192"/>
-      <c r="AG122" s="192"/>
-      <c r="AH122" s="192"/>
-      <c r="AI122" s="192"/>
-      <c r="AJ122" s="192"/>
-      <c r="AK122" s="192"/>
-      <c r="AL122" s="193"/>
-      <c r="AM122" s="180" t="s">
+      <c r="A122" s="157"/>
+      <c r="B122" s="158"/>
+      <c r="C122" s="158"/>
+      <c r="D122" s="158"/>
+      <c r="E122" s="158"/>
+      <c r="F122" s="158"/>
+      <c r="G122" s="158"/>
+      <c r="H122" s="158"/>
+      <c r="I122" s="159"/>
+      <c r="J122" s="157"/>
+      <c r="K122" s="158"/>
+      <c r="L122" s="158"/>
+      <c r="M122" s="158"/>
+      <c r="N122" s="158"/>
+      <c r="O122" s="159"/>
+      <c r="P122" s="157"/>
+      <c r="Q122" s="158"/>
+      <c r="R122" s="158"/>
+      <c r="S122" s="158"/>
+      <c r="T122" s="158"/>
+      <c r="U122" s="159"/>
+      <c r="V122" s="167"/>
+      <c r="W122" s="168"/>
+      <c r="X122" s="168"/>
+      <c r="Y122" s="168"/>
+      <c r="Z122" s="169"/>
+      <c r="AA122" s="171"/>
+      <c r="AB122" s="158"/>
+      <c r="AC122" s="158"/>
+      <c r="AD122" s="158"/>
+      <c r="AE122" s="158"/>
+      <c r="AF122" s="158"/>
+      <c r="AG122" s="158"/>
+      <c r="AH122" s="158"/>
+      <c r="AI122" s="158"/>
+      <c r="AJ122" s="158"/>
+      <c r="AK122" s="158"/>
+      <c r="AL122" s="159"/>
+      <c r="AM122" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AN122" s="181"/>
-      <c r="AO122" s="182"/>
-      <c r="AP122" s="183"/>
-      <c r="AQ122" s="184"/>
-      <c r="AR122" s="180" t="s">
+      <c r="AN122" s="191"/>
+      <c r="AO122" s="192"/>
+      <c r="AP122" s="193"/>
+      <c r="AQ122" s="194"/>
+      <c r="AR122" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="AS122" s="181"/>
-      <c r="AT122" s="185"/>
-      <c r="AU122" s="186"/>
-      <c r="AV122" s="186"/>
-      <c r="AW122" s="187"/>
+      <c r="AS122" s="191"/>
+      <c r="AT122" s="195"/>
+      <c r="AU122" s="196"/>
+      <c r="AV122" s="196"/>
+      <c r="AW122" s="197"/>
     </row>
     <row r="123" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A123" s="194"/>
-      <c r="B123" s="195"/>
-      <c r="C123" s="195"/>
-      <c r="D123" s="195"/>
-      <c r="E123" s="195"/>
-      <c r="F123" s="195"/>
-      <c r="G123" s="195"/>
-      <c r="H123" s="195"/>
-      <c r="I123" s="196"/>
-      <c r="J123" s="194"/>
-      <c r="K123" s="195"/>
-      <c r="L123" s="195"/>
-      <c r="M123" s="195"/>
-      <c r="N123" s="195"/>
-      <c r="O123" s="196"/>
-      <c r="P123" s="194"/>
-      <c r="Q123" s="195"/>
-      <c r="R123" s="195"/>
-      <c r="S123" s="195"/>
-      <c r="T123" s="195"/>
-      <c r="U123" s="196"/>
-      <c r="V123" s="206" t="s">
+      <c r="A123" s="160"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="161"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
+      <c r="F123" s="161"/>
+      <c r="G123" s="161"/>
+      <c r="H123" s="161"/>
+      <c r="I123" s="162"/>
+      <c r="J123" s="160"/>
+      <c r="K123" s="161"/>
+      <c r="L123" s="161"/>
+      <c r="M123" s="161"/>
+      <c r="N123" s="161"/>
+      <c r="O123" s="162"/>
+      <c r="P123" s="160"/>
+      <c r="Q123" s="161"/>
+      <c r="R123" s="161"/>
+      <c r="S123" s="161"/>
+      <c r="T123" s="161"/>
+      <c r="U123" s="162"/>
+      <c r="V123" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W123" s="207"/>
-      <c r="X123" s="207"/>
-      <c r="Y123" s="207"/>
-      <c r="Z123" s="208"/>
-      <c r="AA123" s="209" t="s">
+      <c r="W123" s="173"/>
+      <c r="X123" s="173"/>
+      <c r="Y123" s="173"/>
+      <c r="Z123" s="174"/>
+      <c r="AA123" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB123" s="210"/>
-      <c r="AC123" s="210"/>
-      <c r="AD123" s="210"/>
-      <c r="AE123" s="210"/>
-      <c r="AF123" s="210"/>
-      <c r="AG123" s="211"/>
-      <c r="AH123" s="212" t="s">
+      <c r="AB123" s="176"/>
+      <c r="AC123" s="176"/>
+      <c r="AD123" s="176"/>
+      <c r="AE123" s="176"/>
+      <c r="AF123" s="176"/>
+      <c r="AG123" s="177"/>
+      <c r="AH123" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI123" s="213"/>
-      <c r="AJ123" s="213"/>
-      <c r="AK123" s="213"/>
-      <c r="AL123" s="214"/>
-      <c r="AM123" s="209" t="s">
+      <c r="AI123" s="179"/>
+      <c r="AJ123" s="179"/>
+      <c r="AK123" s="179"/>
+      <c r="AL123" s="180"/>
+      <c r="AM123" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN123" s="210"/>
-      <c r="AO123" s="210"/>
-      <c r="AP123" s="210"/>
-      <c r="AQ123" s="210"/>
-      <c r="AR123" s="210"/>
-      <c r="AS123" s="210"/>
-      <c r="AT123" s="210"/>
-      <c r="AU123" s="210"/>
-      <c r="AV123" s="210"/>
-      <c r="AW123" s="215"/>
+      <c r="AN123" s="176"/>
+      <c r="AO123" s="176"/>
+      <c r="AP123" s="176"/>
+      <c r="AQ123" s="176"/>
+      <c r="AR123" s="176"/>
+      <c r="AS123" s="176"/>
+      <c r="AT123" s="176"/>
+      <c r="AU123" s="176"/>
+      <c r="AV123" s="176"/>
+      <c r="AW123" s="181"/>
     </row>
     <row r="124" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="3"/>
@@ -7518,7 +7525,7 @@
       <c r="AH146" s="110"/>
       <c r="AI146" s="111"/>
       <c r="AJ146" s="112" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AK146" s="113"/>
       <c r="AL146" s="113"/>
@@ -7576,7 +7583,7 @@
       <c r="AH147" s="121"/>
       <c r="AI147" s="122"/>
       <c r="AJ147" s="123" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="AK147" s="124"/>
       <c r="AL147" s="124"/>
@@ -7847,7 +7854,7 @@
     <row r="153" spans="1:51" ht="13.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="D153" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E153" s="127"/>
       <c r="F153" s="128"/>
@@ -7898,72 +7905,72 @@
     <row r="154" spans="1:51" ht="13.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="F154" s="158"/>
-      <c r="G154" s="158"/>
-      <c r="H154" s="158"/>
-      <c r="I154" s="158"/>
-      <c r="J154" s="158"/>
-      <c r="K154" s="159"/>
-      <c r="L154" s="160" t="s">
-        <v>69</v>
-      </c>
-      <c r="M154" s="161"/>
-      <c r="N154" s="161"/>
-      <c r="O154" s="161"/>
-      <c r="P154" s="161"/>
-      <c r="Q154" s="161"/>
-      <c r="R154" s="161"/>
-      <c r="S154" s="161"/>
-      <c r="T154" s="161"/>
-      <c r="U154" s="161"/>
-      <c r="V154" s="161"/>
-      <c r="W154" s="161"/>
-      <c r="X154" s="161"/>
-      <c r="Y154" s="161"/>
-      <c r="Z154" s="161"/>
-      <c r="AA154" s="161"/>
-      <c r="AB154" s="161"/>
-      <c r="AC154" s="161"/>
-      <c r="AD154" s="161"/>
-      <c r="AE154" s="161"/>
-      <c r="AF154" s="161"/>
-      <c r="AG154" s="161"/>
-      <c r="AH154" s="161"/>
-      <c r="AI154" s="161"/>
-      <c r="AJ154" s="161"/>
-      <c r="AK154" s="161"/>
-      <c r="AL154" s="161"/>
-      <c r="AM154" s="161"/>
-      <c r="AN154" s="161"/>
-      <c r="AO154" s="161"/>
-      <c r="AP154" s="161"/>
-      <c r="AQ154" s="161"/>
-      <c r="AR154" s="161"/>
-      <c r="AS154" s="161"/>
-      <c r="AT154" s="161"/>
-      <c r="AU154" s="162"/>
+      <c r="E154" s="201" t="s">
+        <v>66</v>
+      </c>
+      <c r="F154" s="202"/>
+      <c r="G154" s="202"/>
+      <c r="H154" s="202"/>
+      <c r="I154" s="202"/>
+      <c r="J154" s="202"/>
+      <c r="K154" s="203"/>
+      <c r="L154" s="204" t="s">
+        <v>67</v>
+      </c>
+      <c r="M154" s="205"/>
+      <c r="N154" s="205"/>
+      <c r="O154" s="205"/>
+      <c r="P154" s="205"/>
+      <c r="Q154" s="205"/>
+      <c r="R154" s="205"/>
+      <c r="S154" s="205"/>
+      <c r="T154" s="205"/>
+      <c r="U154" s="205"/>
+      <c r="V154" s="205"/>
+      <c r="W154" s="205"/>
+      <c r="X154" s="205"/>
+      <c r="Y154" s="205"/>
+      <c r="Z154" s="205"/>
+      <c r="AA154" s="205"/>
+      <c r="AB154" s="205"/>
+      <c r="AC154" s="205"/>
+      <c r="AD154" s="205"/>
+      <c r="AE154" s="205"/>
+      <c r="AF154" s="205"/>
+      <c r="AG154" s="205"/>
+      <c r="AH154" s="205"/>
+      <c r="AI154" s="205"/>
+      <c r="AJ154" s="205"/>
+      <c r="AK154" s="205"/>
+      <c r="AL154" s="205"/>
+      <c r="AM154" s="205"/>
+      <c r="AN154" s="205"/>
+      <c r="AO154" s="205"/>
+      <c r="AP154" s="205"/>
+      <c r="AQ154" s="205"/>
+      <c r="AR154" s="205"/>
+      <c r="AS154" s="205"/>
+      <c r="AT154" s="205"/>
+      <c r="AU154" s="206"/>
       <c r="AV154" s="6"/>
       <c r="AW154" s="7"/>
     </row>
     <row r="155" spans="1:51" ht="13.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="163" t="s">
-        <v>70</v>
-      </c>
-      <c r="F155" s="164"/>
-      <c r="G155" s="164"/>
-      <c r="H155" s="164"/>
-      <c r="I155" s="164"/>
-      <c r="J155" s="164"/>
-      <c r="K155" s="165"/>
+      <c r="E155" s="207" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="208"/>
+      <c r="G155" s="208"/>
+      <c r="H155" s="208"/>
+      <c r="I155" s="208"/>
+      <c r="J155" s="208"/>
+      <c r="K155" s="209"/>
       <c r="L155" s="130"/>
       <c r="M155" s="107"/>
       <c r="N155" s="107" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O155" s="107"/>
       <c r="P155" s="107"/>
@@ -7976,10 +7983,10 @@
       <c r="W155" s="110"/>
       <c r="X155" s="110"/>
       <c r="Y155" s="110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z155" s="110" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA155" s="110"/>
       <c r="AB155" s="110"/>
@@ -8008,17 +8015,17 @@
     <row r="156" spans="1:51" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="166"/>
-      <c r="F156" s="167"/>
-      <c r="G156" s="167"/>
-      <c r="H156" s="167"/>
-      <c r="I156" s="167"/>
-      <c r="J156" s="167"/>
-      <c r="K156" s="168"/>
+      <c r="E156" s="210"/>
+      <c r="F156" s="211"/>
+      <c r="G156" s="211"/>
+      <c r="H156" s="211"/>
+      <c r="I156" s="211"/>
+      <c r="J156" s="211"/>
+      <c r="K156" s="212"/>
       <c r="L156" s="131"/>
       <c r="M156" s="132"/>
       <c r="N156" s="132" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O156" s="132"/>
       <c r="P156" s="132"/>
@@ -8031,10 +8038,10 @@
       <c r="W156" s="133"/>
       <c r="X156" s="133"/>
       <c r="Y156" s="133" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z156" s="133" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA156" s="133"/>
       <c r="AB156" s="133"/>
@@ -8113,7 +8120,7 @@
       <c r="A158" s="3"/>
       <c r="D158" s="6"/>
       <c r="E158" s="127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F158" s="88"/>
       <c r="G158" s="6"/>
@@ -8214,7 +8221,7 @@
       <c r="D160" s="98"/>
       <c r="E160" s="98"/>
       <c r="F160" s="135" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G160" s="96"/>
       <c r="H160" s="96"/>
@@ -8265,7 +8272,7 @@
       <c r="D161" s="98"/>
       <c r="E161" s="126"/>
       <c r="F161" s="135" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G161" s="96"/>
       <c r="H161" s="96"/>
@@ -8315,53 +8322,53 @@
       <c r="A162" s="3"/>
       <c r="D162" s="98"/>
       <c r="E162" s="136" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F162" s="137"/>
       <c r="G162" s="137"/>
       <c r="H162" s="138"/>
-      <c r="I162" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="J162" s="158"/>
-      <c r="K162" s="158"/>
-      <c r="L162" s="158"/>
-      <c r="M162" s="158"/>
-      <c r="N162" s="158"/>
-      <c r="O162" s="158"/>
-      <c r="P162" s="158"/>
-      <c r="Q162" s="158"/>
-      <c r="R162" s="158"/>
-      <c r="S162" s="158"/>
-      <c r="T162" s="158"/>
-      <c r="U162" s="158"/>
-      <c r="V162" s="158"/>
-      <c r="W162" s="158"/>
-      <c r="X162" s="158"/>
-      <c r="Y162" s="158"/>
-      <c r="Z162" s="158"/>
-      <c r="AA162" s="158"/>
-      <c r="AB162" s="158"/>
-      <c r="AC162" s="158"/>
-      <c r="AD162" s="158"/>
-      <c r="AE162" s="158"/>
-      <c r="AF162" s="158"/>
-      <c r="AG162" s="158"/>
-      <c r="AH162" s="158"/>
-      <c r="AI162" s="159"/>
-      <c r="AJ162" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK162" s="158"/>
-      <c r="AL162" s="158"/>
-      <c r="AM162" s="158"/>
-      <c r="AN162" s="158"/>
-      <c r="AO162" s="158"/>
-      <c r="AP162" s="158"/>
-      <c r="AQ162" s="158"/>
-      <c r="AR162" s="158"/>
-      <c r="AS162" s="158"/>
-      <c r="AT162" s="159"/>
+      <c r="I162" s="201" t="s">
+        <v>77</v>
+      </c>
+      <c r="J162" s="202"/>
+      <c r="K162" s="202"/>
+      <c r="L162" s="202"/>
+      <c r="M162" s="202"/>
+      <c r="N162" s="202"/>
+      <c r="O162" s="202"/>
+      <c r="P162" s="202"/>
+      <c r="Q162" s="202"/>
+      <c r="R162" s="202"/>
+      <c r="S162" s="202"/>
+      <c r="T162" s="202"/>
+      <c r="U162" s="202"/>
+      <c r="V162" s="202"/>
+      <c r="W162" s="202"/>
+      <c r="X162" s="202"/>
+      <c r="Y162" s="202"/>
+      <c r="Z162" s="202"/>
+      <c r="AA162" s="202"/>
+      <c r="AB162" s="202"/>
+      <c r="AC162" s="202"/>
+      <c r="AD162" s="202"/>
+      <c r="AE162" s="202"/>
+      <c r="AF162" s="202"/>
+      <c r="AG162" s="202"/>
+      <c r="AH162" s="202"/>
+      <c r="AI162" s="203"/>
+      <c r="AJ162" s="201" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK162" s="202"/>
+      <c r="AL162" s="202"/>
+      <c r="AM162" s="202"/>
+      <c r="AN162" s="202"/>
+      <c r="AO162" s="202"/>
+      <c r="AP162" s="202"/>
+      <c r="AQ162" s="202"/>
+      <c r="AR162" s="202"/>
+      <c r="AS162" s="202"/>
+      <c r="AT162" s="203"/>
       <c r="AU162" s="96"/>
       <c r="AV162" s="6"/>
       <c r="AW162" s="7"/>
@@ -8369,14 +8376,14 @@
     <row r="163" spans="1:50" ht="13.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="D163" s="98"/>
-      <c r="E163" s="169" t="s">
-        <v>81</v>
-      </c>
-      <c r="F163" s="170"/>
-      <c r="G163" s="170"/>
-      <c r="H163" s="171"/>
+      <c r="E163" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="F163" s="214"/>
+      <c r="G163" s="214"/>
+      <c r="H163" s="215"/>
       <c r="I163" s="139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J163" s="140"/>
       <c r="K163" s="140"/>
@@ -8405,7 +8412,7 @@
       <c r="AH163" s="140"/>
       <c r="AI163" s="142"/>
       <c r="AJ163" s="112" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AK163" s="140"/>
       <c r="AL163" s="140"/>
@@ -8424,14 +8431,14 @@
     <row r="164" spans="1:50" ht="13.5" customHeight="1">
       <c r="A164" s="3"/>
       <c r="D164" s="98"/>
-      <c r="E164" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="F164" s="155"/>
-      <c r="G164" s="155"/>
-      <c r="H164" s="156"/>
+      <c r="E164" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="F164" s="199"/>
+      <c r="G164" s="199"/>
+      <c r="H164" s="200"/>
       <c r="I164" s="143" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J164" s="144"/>
       <c r="K164" s="144"/>
@@ -8460,7 +8467,7 @@
       <c r="AH164" s="144"/>
       <c r="AI164" s="146"/>
       <c r="AJ164" s="147" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AK164" s="144"/>
       <c r="AL164" s="144"/>
@@ -8580,7 +8587,7 @@
     <row r="167" spans="1:50" ht="13.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="D167" s="98" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E167" s="96"/>
       <c r="F167" s="96"/>
@@ -8729,7 +8736,7 @@
     <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="A170" s="3"/>
       <c r="D170" s="98" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E170" s="96"/>
       <c r="F170" s="96"/>
@@ -8968,14 +8975,57 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="E164:H164"/>
+    <mergeCell ref="E154:K154"/>
+    <mergeCell ref="L154:AU154"/>
+    <mergeCell ref="E155:K156"/>
+    <mergeCell ref="I162:AI162"/>
+    <mergeCell ref="AJ162:AT162"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="A121:I123"/>
+    <mergeCell ref="J121:O123"/>
+    <mergeCell ref="P121:U123"/>
+    <mergeCell ref="V121:Z122"/>
+    <mergeCell ref="AA121:AL122"/>
+    <mergeCell ref="V123:Z123"/>
+    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AO81:AQ81"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM82:AN82"/>
+    <mergeCell ref="AO82:AQ82"/>
+    <mergeCell ref="AR82:AS82"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="A81:I83"/>
+    <mergeCell ref="J81:O83"/>
+    <mergeCell ref="P81:U83"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="AA81:AL82"/>
+    <mergeCell ref="V83:Z83"/>
+    <mergeCell ref="AA83:AG83"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
     <mergeCell ref="AM43:AW43"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
@@ -8986,63 +9036,20 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
     <mergeCell ref="AO41:AQ41"/>
     <mergeCell ref="AR41:AS41"/>
     <mergeCell ref="AT41:AW41"/>
     <mergeCell ref="AM42:AN42"/>
     <mergeCell ref="AO42:AQ42"/>
     <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="A81:I83"/>
-    <mergeCell ref="J81:O83"/>
-    <mergeCell ref="P81:U83"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="AA81:AL82"/>
-    <mergeCell ref="V83:Z83"/>
-    <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="A121:I123"/>
-    <mergeCell ref="J121:O123"/>
-    <mergeCell ref="P121:U123"/>
-    <mergeCell ref="V121:Z122"/>
-    <mergeCell ref="AA121:AL122"/>
-    <mergeCell ref="V123:Z123"/>
-    <mergeCell ref="AA123:AG123"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="E164:H164"/>
-    <mergeCell ref="E154:K154"/>
-    <mergeCell ref="L154:AU154"/>
-    <mergeCell ref="E155:K156"/>
-    <mergeCell ref="I162:AI162"/>
-    <mergeCell ref="AJ162:AT162"/>
-    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>

--- a/ThietKe/Login.xlsx
+++ b/ThietKe/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3BD1A-F71A-4142-B4DB-BA4B1AC83A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579F390C-0B17-4CD6-9139-769F92EC86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29ADC7FD-C96C-40F4-A327-3212198E3E4A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -238,10 +238,6 @@
   </si>
   <si>
     <t>Sử dụng</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>User Code</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
@@ -1483,6 +1479,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1579,12 +1650,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,75 +1673,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2109,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AC83E4-A177-4B9D-A805-72C341674143}">
   <dimension ref="A1:BF174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A125" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AJ146" sqref="AJ146"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A166" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2123,187 +2119,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="163" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="163" t="s">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="164" t="s">
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179"/>
+      <c r="V1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="170" t="s">
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="155"/>
-      <c r="AJ1" s="155"/>
-      <c r="AK1" s="155"/>
-      <c r="AL1" s="156"/>
-      <c r="AM1" s="185" t="s">
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="179"/>
+      <c r="AM1" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="182" t="s">
+      <c r="AN1" s="158"/>
+      <c r="AO1" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="184"/>
-      <c r="AR1" s="185" t="s">
+      <c r="AP1" s="206"/>
+      <c r="AQ1" s="207"/>
+      <c r="AR1" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="186"/>
-      <c r="AT1" s="187">
+      <c r="AS1" s="158"/>
+      <c r="AT1" s="208">
         <v>44936</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="189"/>
+      <c r="AU1" s="209"/>
+      <c r="AV1" s="209"/>
+      <c r="AW1" s="210"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="157"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="190" t="s">
+      <c r="A2" s="180"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="181"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="191"/>
-      <c r="AO2" s="192"/>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="190" t="s">
+      <c r="AN2" s="212"/>
+      <c r="AO2" s="213"/>
+      <c r="AP2" s="214"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="191"/>
-      <c r="AT2" s="195"/>
-      <c r="AU2" s="196"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="197"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="155"/>
+      <c r="AV2" s="155"/>
+      <c r="AW2" s="156"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="172" t="s">
+      <c r="A3" s="183"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="175" t="s">
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="178" t="s">
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="200"/>
+      <c r="AH3" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="179"/>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="175" t="s">
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
+      <c r="AL3" s="203"/>
+      <c r="AM3" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="176"/>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176"/>
-      <c r="AT3" s="176"/>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="181"/>
+      <c r="AN3" s="199"/>
+      <c r="AO3" s="199"/>
+      <c r="AP3" s="199"/>
+      <c r="AQ3" s="199"/>
+      <c r="AR3" s="199"/>
+      <c r="AS3" s="199"/>
+      <c r="AT3" s="199"/>
+      <c r="AU3" s="199"/>
+      <c r="AV3" s="199"/>
+      <c r="AW3" s="204"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -3070,187 +3066,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="155"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="163" t="s">
+      <c r="B41" s="178"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="163" t="s">
+      <c r="K41" s="178"/>
+      <c r="L41" s="178"/>
+      <c r="M41" s="178"/>
+      <c r="N41" s="178"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="155"/>
-      <c r="R41" s="155"/>
-      <c r="S41" s="155"/>
-      <c r="T41" s="155"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="164" t="s">
+      <c r="Q41" s="178"/>
+      <c r="R41" s="178"/>
+      <c r="S41" s="178"/>
+      <c r="T41" s="178"/>
+      <c r="U41" s="179"/>
+      <c r="V41" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="165"/>
-      <c r="X41" s="165"/>
-      <c r="Y41" s="165"/>
-      <c r="Z41" s="166"/>
-      <c r="AA41" s="170" t="s">
+      <c r="W41" s="188"/>
+      <c r="X41" s="188"/>
+      <c r="Y41" s="188"/>
+      <c r="Z41" s="189"/>
+      <c r="AA41" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="155"/>
-      <c r="AC41" s="155"/>
-      <c r="AD41" s="155"/>
-      <c r="AE41" s="155"/>
-      <c r="AF41" s="155"/>
-      <c r="AG41" s="155"/>
-      <c r="AH41" s="155"/>
-      <c r="AI41" s="155"/>
-      <c r="AJ41" s="155"/>
-      <c r="AK41" s="155"/>
-      <c r="AL41" s="156"/>
-      <c r="AM41" s="185" t="s">
+      <c r="AB41" s="178"/>
+      <c r="AC41" s="178"/>
+      <c r="AD41" s="178"/>
+      <c r="AE41" s="178"/>
+      <c r="AF41" s="178"/>
+      <c r="AG41" s="178"/>
+      <c r="AH41" s="178"/>
+      <c r="AI41" s="178"/>
+      <c r="AJ41" s="178"/>
+      <c r="AK41" s="178"/>
+      <c r="AL41" s="179"/>
+      <c r="AM41" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="186"/>
-      <c r="AO41" s="182" t="s">
+      <c r="AN41" s="158"/>
+      <c r="AO41" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="183"/>
-      <c r="AQ41" s="184"/>
-      <c r="AR41" s="185" t="s">
+      <c r="AP41" s="206"/>
+      <c r="AQ41" s="207"/>
+      <c r="AR41" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="186"/>
-      <c r="AT41" s="187">
+      <c r="AS41" s="158"/>
+      <c r="AT41" s="208">
         <v>44936</v>
       </c>
-      <c r="AU41" s="188"/>
-      <c r="AV41" s="188"/>
-      <c r="AW41" s="189"/>
+      <c r="AU41" s="209"/>
+      <c r="AV41" s="209"/>
+      <c r="AW41" s="210"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="159"/>
-      <c r="P42" s="157"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="158"/>
-      <c r="S42" s="158"/>
-      <c r="T42" s="158"/>
-      <c r="U42" s="159"/>
-      <c r="V42" s="167"/>
-      <c r="W42" s="168"/>
-      <c r="X42" s="168"/>
-      <c r="Y42" s="168"/>
-      <c r="Z42" s="169"/>
-      <c r="AA42" s="171"/>
-      <c r="AB42" s="158"/>
-      <c r="AC42" s="158"/>
-      <c r="AD42" s="158"/>
-      <c r="AE42" s="158"/>
-      <c r="AF42" s="158"/>
-      <c r="AG42" s="158"/>
-      <c r="AH42" s="158"/>
-      <c r="AI42" s="158"/>
-      <c r="AJ42" s="158"/>
-      <c r="AK42" s="158"/>
-      <c r="AL42" s="159"/>
-      <c r="AM42" s="190" t="s">
+      <c r="A42" s="180"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="181"/>
+      <c r="M42" s="181"/>
+      <c r="N42" s="181"/>
+      <c r="O42" s="182"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="181"/>
+      <c r="R42" s="181"/>
+      <c r="S42" s="181"/>
+      <c r="T42" s="181"/>
+      <c r="U42" s="182"/>
+      <c r="V42" s="190"/>
+      <c r="W42" s="191"/>
+      <c r="X42" s="191"/>
+      <c r="Y42" s="191"/>
+      <c r="Z42" s="192"/>
+      <c r="AA42" s="194"/>
+      <c r="AB42" s="181"/>
+      <c r="AC42" s="181"/>
+      <c r="AD42" s="181"/>
+      <c r="AE42" s="181"/>
+      <c r="AF42" s="181"/>
+      <c r="AG42" s="181"/>
+      <c r="AH42" s="181"/>
+      <c r="AI42" s="181"/>
+      <c r="AJ42" s="181"/>
+      <c r="AK42" s="181"/>
+      <c r="AL42" s="182"/>
+      <c r="AM42" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="191"/>
-      <c r="AO42" s="192"/>
-      <c r="AP42" s="193"/>
-      <c r="AQ42" s="194"/>
-      <c r="AR42" s="190" t="s">
+      <c r="AN42" s="212"/>
+      <c r="AO42" s="213"/>
+      <c r="AP42" s="214"/>
+      <c r="AQ42" s="215"/>
+      <c r="AR42" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="191"/>
-      <c r="AT42" s="195"/>
-      <c r="AU42" s="196"/>
-      <c r="AV42" s="196"/>
-      <c r="AW42" s="197"/>
+      <c r="AS42" s="212"/>
+      <c r="AT42" s="154"/>
+      <c r="AU42" s="155"/>
+      <c r="AV42" s="155"/>
+      <c r="AW42" s="156"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="160"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="160"/>
-      <c r="Q43" s="161"/>
-      <c r="R43" s="161"/>
-      <c r="S43" s="161"/>
-      <c r="T43" s="161"/>
-      <c r="U43" s="162"/>
-      <c r="V43" s="172" t="s">
+      <c r="A43" s="183"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="184"/>
+      <c r="L43" s="184"/>
+      <c r="M43" s="184"/>
+      <c r="N43" s="184"/>
+      <c r="O43" s="185"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="184"/>
+      <c r="R43" s="184"/>
+      <c r="S43" s="184"/>
+      <c r="T43" s="184"/>
+      <c r="U43" s="185"/>
+      <c r="V43" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="174"/>
-      <c r="AA43" s="175" t="s">
+      <c r="W43" s="196"/>
+      <c r="X43" s="196"/>
+      <c r="Y43" s="196"/>
+      <c r="Z43" s="197"/>
+      <c r="AA43" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="176"/>
-      <c r="AC43" s="176"/>
-      <c r="AD43" s="176"/>
-      <c r="AE43" s="176"/>
-      <c r="AF43" s="176"/>
-      <c r="AG43" s="177"/>
-      <c r="AH43" s="178" t="s">
+      <c r="AB43" s="199"/>
+      <c r="AC43" s="199"/>
+      <c r="AD43" s="199"/>
+      <c r="AE43" s="199"/>
+      <c r="AF43" s="199"/>
+      <c r="AG43" s="200"/>
+      <c r="AH43" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="179"/>
-      <c r="AJ43" s="179"/>
-      <c r="AK43" s="179"/>
-      <c r="AL43" s="180"/>
-      <c r="AM43" s="175" t="s">
+      <c r="AI43" s="202"/>
+      <c r="AJ43" s="202"/>
+      <c r="AK43" s="202"/>
+      <c r="AL43" s="203"/>
+      <c r="AM43" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="176"/>
-      <c r="AO43" s="176"/>
-      <c r="AP43" s="176"/>
-      <c r="AQ43" s="176"/>
-      <c r="AR43" s="176"/>
-      <c r="AS43" s="176"/>
-      <c r="AT43" s="176"/>
-      <c r="AU43" s="176"/>
-      <c r="AV43" s="176"/>
-      <c r="AW43" s="181"/>
+      <c r="AN43" s="199"/>
+      <c r="AO43" s="199"/>
+      <c r="AP43" s="199"/>
+      <c r="AQ43" s="199"/>
+      <c r="AR43" s="199"/>
+      <c r="AS43" s="199"/>
+      <c r="AT43" s="199"/>
+      <c r="AU43" s="199"/>
+      <c r="AV43" s="199"/>
+      <c r="AW43" s="204"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -4992,187 +4988,187 @@
       <c r="AW80" s="7"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A81" s="154" t="s">
+      <c r="A81" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="155"/>
-      <c r="C81" s="155"/>
-      <c r="D81" s="155"/>
-      <c r="E81" s="155"/>
-      <c r="F81" s="155"/>
-      <c r="G81" s="155"/>
-      <c r="H81" s="155"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="163" t="s">
+      <c r="B81" s="178"/>
+      <c r="C81" s="178"/>
+      <c r="D81" s="178"/>
+      <c r="E81" s="178"/>
+      <c r="F81" s="178"/>
+      <c r="G81" s="178"/>
+      <c r="H81" s="178"/>
+      <c r="I81" s="179"/>
+      <c r="J81" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="K81" s="155"/>
-      <c r="L81" s="155"/>
-      <c r="M81" s="155"/>
-      <c r="N81" s="155"/>
-      <c r="O81" s="156"/>
-      <c r="P81" s="163" t="s">
+      <c r="K81" s="178"/>
+      <c r="L81" s="178"/>
+      <c r="M81" s="178"/>
+      <c r="N81" s="178"/>
+      <c r="O81" s="179"/>
+      <c r="P81" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="155"/>
-      <c r="R81" s="155"/>
-      <c r="S81" s="155"/>
-      <c r="T81" s="155"/>
-      <c r="U81" s="156"/>
-      <c r="V81" s="164" t="s">
+      <c r="Q81" s="178"/>
+      <c r="R81" s="178"/>
+      <c r="S81" s="178"/>
+      <c r="T81" s="178"/>
+      <c r="U81" s="179"/>
+      <c r="V81" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="W81" s="165"/>
-      <c r="X81" s="165"/>
-      <c r="Y81" s="165"/>
-      <c r="Z81" s="166"/>
-      <c r="AA81" s="170" t="s">
+      <c r="W81" s="188"/>
+      <c r="X81" s="188"/>
+      <c r="Y81" s="188"/>
+      <c r="Z81" s="189"/>
+      <c r="AA81" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AB81" s="155"/>
-      <c r="AC81" s="155"/>
-      <c r="AD81" s="155"/>
-      <c r="AE81" s="155"/>
-      <c r="AF81" s="155"/>
-      <c r="AG81" s="155"/>
-      <c r="AH81" s="155"/>
-      <c r="AI81" s="155"/>
-      <c r="AJ81" s="155"/>
-      <c r="AK81" s="155"/>
-      <c r="AL81" s="156"/>
-      <c r="AM81" s="185" t="s">
+      <c r="AB81" s="178"/>
+      <c r="AC81" s="178"/>
+      <c r="AD81" s="178"/>
+      <c r="AE81" s="178"/>
+      <c r="AF81" s="178"/>
+      <c r="AG81" s="178"/>
+      <c r="AH81" s="178"/>
+      <c r="AI81" s="178"/>
+      <c r="AJ81" s="178"/>
+      <c r="AK81" s="178"/>
+      <c r="AL81" s="179"/>
+      <c r="AM81" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="AN81" s="186"/>
-      <c r="AO81" s="182" t="s">
+      <c r="AN81" s="158"/>
+      <c r="AO81" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AP81" s="183"/>
-      <c r="AQ81" s="184"/>
-      <c r="AR81" s="185" t="s">
+      <c r="AP81" s="206"/>
+      <c r="AQ81" s="207"/>
+      <c r="AR81" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AS81" s="186"/>
-      <c r="AT81" s="187">
+      <c r="AS81" s="158"/>
+      <c r="AT81" s="208">
         <v>44936</v>
       </c>
-      <c r="AU81" s="188"/>
-      <c r="AV81" s="188"/>
-      <c r="AW81" s="189"/>
+      <c r="AU81" s="209"/>
+      <c r="AV81" s="209"/>
+      <c r="AW81" s="210"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A82" s="157"/>
-      <c r="B82" s="158"/>
-      <c r="C82" s="158"/>
-      <c r="D82" s="158"/>
-      <c r="E82" s="158"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="158"/>
-      <c r="H82" s="158"/>
-      <c r="I82" s="159"/>
-      <c r="J82" s="157"/>
-      <c r="K82" s="158"/>
-      <c r="L82" s="158"/>
-      <c r="M82" s="158"/>
-      <c r="N82" s="158"/>
-      <c r="O82" s="159"/>
-      <c r="P82" s="157"/>
-      <c r="Q82" s="158"/>
-      <c r="R82" s="158"/>
-      <c r="S82" s="158"/>
-      <c r="T82" s="158"/>
-      <c r="U82" s="159"/>
-      <c r="V82" s="167"/>
-      <c r="W82" s="168"/>
-      <c r="X82" s="168"/>
-      <c r="Y82" s="168"/>
-      <c r="Z82" s="169"/>
-      <c r="AA82" s="171"/>
-      <c r="AB82" s="158"/>
-      <c r="AC82" s="158"/>
-      <c r="AD82" s="158"/>
-      <c r="AE82" s="158"/>
-      <c r="AF82" s="158"/>
-      <c r="AG82" s="158"/>
-      <c r="AH82" s="158"/>
-      <c r="AI82" s="158"/>
-      <c r="AJ82" s="158"/>
-      <c r="AK82" s="158"/>
-      <c r="AL82" s="159"/>
-      <c r="AM82" s="190" t="s">
+      <c r="A82" s="180"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="181"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="181"/>
+      <c r="H82" s="181"/>
+      <c r="I82" s="182"/>
+      <c r="J82" s="180"/>
+      <c r="K82" s="181"/>
+      <c r="L82" s="181"/>
+      <c r="M82" s="181"/>
+      <c r="N82" s="181"/>
+      <c r="O82" s="182"/>
+      <c r="P82" s="180"/>
+      <c r="Q82" s="181"/>
+      <c r="R82" s="181"/>
+      <c r="S82" s="181"/>
+      <c r="T82" s="181"/>
+      <c r="U82" s="182"/>
+      <c r="V82" s="190"/>
+      <c r="W82" s="191"/>
+      <c r="X82" s="191"/>
+      <c r="Y82" s="191"/>
+      <c r="Z82" s="192"/>
+      <c r="AA82" s="194"/>
+      <c r="AB82" s="181"/>
+      <c r="AC82" s="181"/>
+      <c r="AD82" s="181"/>
+      <c r="AE82" s="181"/>
+      <c r="AF82" s="181"/>
+      <c r="AG82" s="181"/>
+      <c r="AH82" s="181"/>
+      <c r="AI82" s="181"/>
+      <c r="AJ82" s="181"/>
+      <c r="AK82" s="181"/>
+      <c r="AL82" s="182"/>
+      <c r="AM82" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AN82" s="191"/>
-      <c r="AO82" s="192"/>
-      <c r="AP82" s="193"/>
-      <c r="AQ82" s="194"/>
-      <c r="AR82" s="190" t="s">
+      <c r="AN82" s="212"/>
+      <c r="AO82" s="213"/>
+      <c r="AP82" s="214"/>
+      <c r="AQ82" s="215"/>
+      <c r="AR82" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="AS82" s="191"/>
-      <c r="AT82" s="195"/>
-      <c r="AU82" s="196"/>
-      <c r="AV82" s="196"/>
-      <c r="AW82" s="197"/>
+      <c r="AS82" s="212"/>
+      <c r="AT82" s="154"/>
+      <c r="AU82" s="155"/>
+      <c r="AV82" s="155"/>
+      <c r="AW82" s="156"/>
     </row>
     <row r="83" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A83" s="160"/>
-      <c r="B83" s="161"/>
-      <c r="C83" s="161"/>
-      <c r="D83" s="161"/>
-      <c r="E83" s="161"/>
-      <c r="F83" s="161"/>
-      <c r="G83" s="161"/>
-      <c r="H83" s="161"/>
-      <c r="I83" s="162"/>
-      <c r="J83" s="160"/>
-      <c r="K83" s="161"/>
-      <c r="L83" s="161"/>
-      <c r="M83" s="161"/>
-      <c r="N83" s="161"/>
-      <c r="O83" s="162"/>
-      <c r="P83" s="160"/>
-      <c r="Q83" s="161"/>
-      <c r="R83" s="161"/>
-      <c r="S83" s="161"/>
-      <c r="T83" s="161"/>
-      <c r="U83" s="162"/>
-      <c r="V83" s="172" t="s">
+      <c r="A83" s="183"/>
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
+      <c r="G83" s="184"/>
+      <c r="H83" s="184"/>
+      <c r="I83" s="185"/>
+      <c r="J83" s="183"/>
+      <c r="K83" s="184"/>
+      <c r="L83" s="184"/>
+      <c r="M83" s="184"/>
+      <c r="N83" s="184"/>
+      <c r="O83" s="185"/>
+      <c r="P83" s="183"/>
+      <c r="Q83" s="184"/>
+      <c r="R83" s="184"/>
+      <c r="S83" s="184"/>
+      <c r="T83" s="184"/>
+      <c r="U83" s="185"/>
+      <c r="V83" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="W83" s="173"/>
-      <c r="X83" s="173"/>
-      <c r="Y83" s="173"/>
-      <c r="Z83" s="174"/>
-      <c r="AA83" s="175" t="s">
+      <c r="W83" s="196"/>
+      <c r="X83" s="196"/>
+      <c r="Y83" s="196"/>
+      <c r="Z83" s="197"/>
+      <c r="AA83" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="176"/>
-      <c r="AC83" s="176"/>
-      <c r="AD83" s="176"/>
-      <c r="AE83" s="176"/>
-      <c r="AF83" s="176"/>
-      <c r="AG83" s="177"/>
-      <c r="AH83" s="178" t="s">
+      <c r="AB83" s="199"/>
+      <c r="AC83" s="199"/>
+      <c r="AD83" s="199"/>
+      <c r="AE83" s="199"/>
+      <c r="AF83" s="199"/>
+      <c r="AG83" s="200"/>
+      <c r="AH83" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="AI83" s="179"/>
-      <c r="AJ83" s="179"/>
-      <c r="AK83" s="179"/>
-      <c r="AL83" s="180"/>
-      <c r="AM83" s="175" t="s">
+      <c r="AI83" s="202"/>
+      <c r="AJ83" s="202"/>
+      <c r="AK83" s="202"/>
+      <c r="AL83" s="203"/>
+      <c r="AM83" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="AN83" s="176"/>
-      <c r="AO83" s="176"/>
-      <c r="AP83" s="176"/>
-      <c r="AQ83" s="176"/>
-      <c r="AR83" s="176"/>
-      <c r="AS83" s="176"/>
-      <c r="AT83" s="176"/>
-      <c r="AU83" s="176"/>
-      <c r="AV83" s="176"/>
-      <c r="AW83" s="181"/>
+      <c r="AN83" s="199"/>
+      <c r="AO83" s="199"/>
+      <c r="AP83" s="199"/>
+      <c r="AQ83" s="199"/>
+      <c r="AR83" s="199"/>
+      <c r="AS83" s="199"/>
+      <c r="AT83" s="199"/>
+      <c r="AU83" s="199"/>
+      <c r="AV83" s="199"/>
+      <c r="AW83" s="204"/>
     </row>
     <row r="84" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="3"/>
@@ -6289,187 +6285,187 @@
       <c r="AW120" s="7"/>
     </row>
     <row r="121" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A121" s="154" t="s">
+      <c r="A121" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="155"/>
-      <c r="C121" s="155"/>
-      <c r="D121" s="155"/>
-      <c r="E121" s="155"/>
-      <c r="F121" s="155"/>
-      <c r="G121" s="155"/>
-      <c r="H121" s="155"/>
-      <c r="I121" s="156"/>
-      <c r="J121" s="163" t="s">
+      <c r="B121" s="178"/>
+      <c r="C121" s="178"/>
+      <c r="D121" s="178"/>
+      <c r="E121" s="178"/>
+      <c r="F121" s="178"/>
+      <c r="G121" s="178"/>
+      <c r="H121" s="178"/>
+      <c r="I121" s="179"/>
+      <c r="J121" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="K121" s="155"/>
-      <c r="L121" s="155"/>
-      <c r="M121" s="155"/>
-      <c r="N121" s="155"/>
-      <c r="O121" s="156"/>
-      <c r="P121" s="163" t="s">
+      <c r="K121" s="178"/>
+      <c r="L121" s="178"/>
+      <c r="M121" s="178"/>
+      <c r="N121" s="178"/>
+      <c r="O121" s="179"/>
+      <c r="P121" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="Q121" s="155"/>
-      <c r="R121" s="155"/>
-      <c r="S121" s="155"/>
-      <c r="T121" s="155"/>
-      <c r="U121" s="156"/>
-      <c r="V121" s="164" t="s">
+      <c r="Q121" s="178"/>
+      <c r="R121" s="178"/>
+      <c r="S121" s="178"/>
+      <c r="T121" s="178"/>
+      <c r="U121" s="179"/>
+      <c r="V121" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="W121" s="165"/>
-      <c r="X121" s="165"/>
-      <c r="Y121" s="165"/>
-      <c r="Z121" s="166"/>
-      <c r="AA121" s="170" t="s">
+      <c r="W121" s="188"/>
+      <c r="X121" s="188"/>
+      <c r="Y121" s="188"/>
+      <c r="Z121" s="189"/>
+      <c r="AA121" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AB121" s="155"/>
-      <c r="AC121" s="155"/>
-      <c r="AD121" s="155"/>
-      <c r="AE121" s="155"/>
-      <c r="AF121" s="155"/>
-      <c r="AG121" s="155"/>
-      <c r="AH121" s="155"/>
-      <c r="AI121" s="155"/>
-      <c r="AJ121" s="155"/>
-      <c r="AK121" s="155"/>
-      <c r="AL121" s="156"/>
-      <c r="AM121" s="185" t="s">
+      <c r="AB121" s="178"/>
+      <c r="AC121" s="178"/>
+      <c r="AD121" s="178"/>
+      <c r="AE121" s="178"/>
+      <c r="AF121" s="178"/>
+      <c r="AG121" s="178"/>
+      <c r="AH121" s="178"/>
+      <c r="AI121" s="178"/>
+      <c r="AJ121" s="178"/>
+      <c r="AK121" s="178"/>
+      <c r="AL121" s="179"/>
+      <c r="AM121" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="AN121" s="186"/>
-      <c r="AO121" s="182" t="s">
+      <c r="AN121" s="158"/>
+      <c r="AO121" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AP121" s="183"/>
-      <c r="AQ121" s="184"/>
-      <c r="AR121" s="185" t="s">
+      <c r="AP121" s="206"/>
+      <c r="AQ121" s="207"/>
+      <c r="AR121" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AS121" s="186"/>
-      <c r="AT121" s="187">
+      <c r="AS121" s="158"/>
+      <c r="AT121" s="208">
         <v>44936</v>
       </c>
-      <c r="AU121" s="188"/>
-      <c r="AV121" s="188"/>
-      <c r="AW121" s="189"/>
+      <c r="AU121" s="209"/>
+      <c r="AV121" s="209"/>
+      <c r="AW121" s="210"/>
     </row>
     <row r="122" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A122" s="157"/>
-      <c r="B122" s="158"/>
-      <c r="C122" s="158"/>
-      <c r="D122" s="158"/>
-      <c r="E122" s="158"/>
-      <c r="F122" s="158"/>
-      <c r="G122" s="158"/>
-      <c r="H122" s="158"/>
-      <c r="I122" s="159"/>
-      <c r="J122" s="157"/>
-      <c r="K122" s="158"/>
-      <c r="L122" s="158"/>
-      <c r="M122" s="158"/>
-      <c r="N122" s="158"/>
-      <c r="O122" s="159"/>
-      <c r="P122" s="157"/>
-      <c r="Q122" s="158"/>
-      <c r="R122" s="158"/>
-      <c r="S122" s="158"/>
-      <c r="T122" s="158"/>
-      <c r="U122" s="159"/>
-      <c r="V122" s="167"/>
-      <c r="W122" s="168"/>
-      <c r="X122" s="168"/>
-      <c r="Y122" s="168"/>
-      <c r="Z122" s="169"/>
-      <c r="AA122" s="171"/>
-      <c r="AB122" s="158"/>
-      <c r="AC122" s="158"/>
-      <c r="AD122" s="158"/>
-      <c r="AE122" s="158"/>
-      <c r="AF122" s="158"/>
-      <c r="AG122" s="158"/>
-      <c r="AH122" s="158"/>
-      <c r="AI122" s="158"/>
-      <c r="AJ122" s="158"/>
-      <c r="AK122" s="158"/>
-      <c r="AL122" s="159"/>
-      <c r="AM122" s="190" t="s">
+      <c r="A122" s="180"/>
+      <c r="B122" s="181"/>
+      <c r="C122" s="181"/>
+      <c r="D122" s="181"/>
+      <c r="E122" s="181"/>
+      <c r="F122" s="181"/>
+      <c r="G122" s="181"/>
+      <c r="H122" s="181"/>
+      <c r="I122" s="182"/>
+      <c r="J122" s="180"/>
+      <c r="K122" s="181"/>
+      <c r="L122" s="181"/>
+      <c r="M122" s="181"/>
+      <c r="N122" s="181"/>
+      <c r="O122" s="182"/>
+      <c r="P122" s="180"/>
+      <c r="Q122" s="181"/>
+      <c r="R122" s="181"/>
+      <c r="S122" s="181"/>
+      <c r="T122" s="181"/>
+      <c r="U122" s="182"/>
+      <c r="V122" s="190"/>
+      <c r="W122" s="191"/>
+      <c r="X122" s="191"/>
+      <c r="Y122" s="191"/>
+      <c r="Z122" s="192"/>
+      <c r="AA122" s="194"/>
+      <c r="AB122" s="181"/>
+      <c r="AC122" s="181"/>
+      <c r="AD122" s="181"/>
+      <c r="AE122" s="181"/>
+      <c r="AF122" s="181"/>
+      <c r="AG122" s="181"/>
+      <c r="AH122" s="181"/>
+      <c r="AI122" s="181"/>
+      <c r="AJ122" s="181"/>
+      <c r="AK122" s="181"/>
+      <c r="AL122" s="182"/>
+      <c r="AM122" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AN122" s="191"/>
-      <c r="AO122" s="192"/>
-      <c r="AP122" s="193"/>
-      <c r="AQ122" s="194"/>
-      <c r="AR122" s="190" t="s">
+      <c r="AN122" s="212"/>
+      <c r="AO122" s="213"/>
+      <c r="AP122" s="214"/>
+      <c r="AQ122" s="215"/>
+      <c r="AR122" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="AS122" s="191"/>
-      <c r="AT122" s="195"/>
-      <c r="AU122" s="196"/>
-      <c r="AV122" s="196"/>
-      <c r="AW122" s="197"/>
+      <c r="AS122" s="212"/>
+      <c r="AT122" s="154"/>
+      <c r="AU122" s="155"/>
+      <c r="AV122" s="155"/>
+      <c r="AW122" s="156"/>
     </row>
     <row r="123" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A123" s="160"/>
-      <c r="B123" s="161"/>
-      <c r="C123" s="161"/>
-      <c r="D123" s="161"/>
-      <c r="E123" s="161"/>
-      <c r="F123" s="161"/>
-      <c r="G123" s="161"/>
-      <c r="H123" s="161"/>
-      <c r="I123" s="162"/>
-      <c r="J123" s="160"/>
-      <c r="K123" s="161"/>
-      <c r="L123" s="161"/>
-      <c r="M123" s="161"/>
-      <c r="N123" s="161"/>
-      <c r="O123" s="162"/>
-      <c r="P123" s="160"/>
-      <c r="Q123" s="161"/>
-      <c r="R123" s="161"/>
-      <c r="S123" s="161"/>
-      <c r="T123" s="161"/>
-      <c r="U123" s="162"/>
-      <c r="V123" s="172" t="s">
+      <c r="A123" s="183"/>
+      <c r="B123" s="184"/>
+      <c r="C123" s="184"/>
+      <c r="D123" s="184"/>
+      <c r="E123" s="184"/>
+      <c r="F123" s="184"/>
+      <c r="G123" s="184"/>
+      <c r="H123" s="184"/>
+      <c r="I123" s="185"/>
+      <c r="J123" s="183"/>
+      <c r="K123" s="184"/>
+      <c r="L123" s="184"/>
+      <c r="M123" s="184"/>
+      <c r="N123" s="184"/>
+      <c r="O123" s="185"/>
+      <c r="P123" s="183"/>
+      <c r="Q123" s="184"/>
+      <c r="R123" s="184"/>
+      <c r="S123" s="184"/>
+      <c r="T123" s="184"/>
+      <c r="U123" s="185"/>
+      <c r="V123" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="W123" s="173"/>
-      <c r="X123" s="173"/>
-      <c r="Y123" s="173"/>
-      <c r="Z123" s="174"/>
-      <c r="AA123" s="175" t="s">
+      <c r="W123" s="196"/>
+      <c r="X123" s="196"/>
+      <c r="Y123" s="196"/>
+      <c r="Z123" s="197"/>
+      <c r="AA123" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="AB123" s="176"/>
-      <c r="AC123" s="176"/>
-      <c r="AD123" s="176"/>
-      <c r="AE123" s="176"/>
-      <c r="AF123" s="176"/>
-      <c r="AG123" s="177"/>
-      <c r="AH123" s="178" t="s">
+      <c r="AB123" s="199"/>
+      <c r="AC123" s="199"/>
+      <c r="AD123" s="199"/>
+      <c r="AE123" s="199"/>
+      <c r="AF123" s="199"/>
+      <c r="AG123" s="200"/>
+      <c r="AH123" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="AI123" s="179"/>
-      <c r="AJ123" s="179"/>
-      <c r="AK123" s="179"/>
-      <c r="AL123" s="180"/>
-      <c r="AM123" s="175" t="s">
+      <c r="AI123" s="202"/>
+      <c r="AJ123" s="202"/>
+      <c r="AK123" s="202"/>
+      <c r="AL123" s="203"/>
+      <c r="AM123" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="AN123" s="176"/>
-      <c r="AO123" s="176"/>
-      <c r="AP123" s="176"/>
-      <c r="AQ123" s="176"/>
-      <c r="AR123" s="176"/>
-      <c r="AS123" s="176"/>
-      <c r="AT123" s="176"/>
-      <c r="AU123" s="176"/>
-      <c r="AV123" s="176"/>
-      <c r="AW123" s="181"/>
+      <c r="AN123" s="199"/>
+      <c r="AO123" s="199"/>
+      <c r="AP123" s="199"/>
+      <c r="AQ123" s="199"/>
+      <c r="AR123" s="199"/>
+      <c r="AS123" s="199"/>
+      <c r="AT123" s="199"/>
+      <c r="AU123" s="199"/>
+      <c r="AV123" s="199"/>
+      <c r="AW123" s="204"/>
     </row>
     <row r="124" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="3"/>
@@ -6706,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="68" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G131" s="69"/>
       <c r="H131" s="69"/>
@@ -6716,7 +6712,7 @@
       <c r="L131" s="69"/>
       <c r="M131" s="70"/>
       <c r="N131" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O131" s="69"/>
       <c r="P131" s="69"/>
@@ -6734,7 +6730,7 @@
       <c r="AB131" s="69"/>
       <c r="AC131" s="69"/>
       <c r="AD131" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE131" s="69"/>
       <c r="AF131" s="69"/>
@@ -6744,7 +6740,7 @@
       <c r="AJ131" s="69"/>
       <c r="AK131" s="69"/>
       <c r="AL131" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM131" s="69"/>
       <c r="AN131" s="91"/>
@@ -6775,7 +6771,7 @@
       <c r="L132" s="82"/>
       <c r="M132" s="83"/>
       <c r="N132" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O132" s="82"/>
       <c r="P132" s="82"/>
@@ -6793,7 +6789,7 @@
       <c r="AB132" s="82"/>
       <c r="AC132" s="82"/>
       <c r="AD132" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE132" s="94"/>
       <c r="AF132" s="82"/>
@@ -6803,7 +6799,7 @@
       <c r="AJ132" s="82"/>
       <c r="AK132" s="82"/>
       <c r="AL132" s="81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM132" s="82"/>
       <c r="AN132" s="83"/>
@@ -7002,7 +6998,7 @@
       <c r="AJ136" s="69"/>
       <c r="AK136" s="69"/>
       <c r="AL136" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM136" s="69"/>
       <c r="AN136" s="70"/>
@@ -7059,7 +7055,7 @@
       <c r="AJ137" s="74"/>
       <c r="AK137" s="74"/>
       <c r="AL137" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM137" s="74"/>
       <c r="AN137" s="75"/>
@@ -7277,7 +7273,7 @@
     <row r="142" spans="1:50" ht="13.5" customHeight="1">
       <c r="A142" s="3"/>
       <c r="D142" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E142" s="86"/>
       <c r="F142" s="6"/>
@@ -7328,7 +7324,7 @@
     <row r="143" spans="1:50" ht="13.5" customHeight="1">
       <c r="A143" s="3"/>
       <c r="D143" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E143" s="86"/>
       <c r="F143" s="6"/>
@@ -7380,7 +7376,7 @@
       <c r="A144" s="3"/>
       <c r="D144" s="6"/>
       <c r="E144" s="98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -7444,7 +7440,7 @@
       <c r="L145" s="101"/>
       <c r="M145" s="101"/>
       <c r="N145" s="100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O145" s="101"/>
       <c r="P145" s="101"/>
@@ -7468,7 +7464,7 @@
       <c r="AH145" s="102"/>
       <c r="AI145" s="102"/>
       <c r="AJ145" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK145" s="102"/>
       <c r="AL145" s="102"/>
@@ -7501,7 +7497,7 @@
       <c r="L146" s="107"/>
       <c r="M146" s="108"/>
       <c r="N146" s="109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O146" s="106"/>
       <c r="P146" s="106"/>
@@ -7525,7 +7521,7 @@
       <c r="AH146" s="110"/>
       <c r="AI146" s="111"/>
       <c r="AJ146" s="112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK146" s="113"/>
       <c r="AL146" s="113"/>
@@ -7559,7 +7555,7 @@
       <c r="L147" s="119"/>
       <c r="M147" s="120"/>
       <c r="N147" s="117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O147" s="118"/>
       <c r="P147" s="118"/>
@@ -7583,7 +7579,7 @@
       <c r="AH147" s="121"/>
       <c r="AI147" s="122"/>
       <c r="AJ147" s="123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK147" s="124"/>
       <c r="AL147" s="124"/>
@@ -7854,7 +7850,7 @@
     <row r="153" spans="1:51" ht="13.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="D153" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E153" s="127"/>
       <c r="F153" s="128"/>
@@ -7905,72 +7901,72 @@
     <row r="154" spans="1:51" ht="13.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="201" t="s">
+      <c r="E154" s="162" t="s">
+        <v>65</v>
+      </c>
+      <c r="F154" s="163"/>
+      <c r="G154" s="163"/>
+      <c r="H154" s="163"/>
+      <c r="I154" s="163"/>
+      <c r="J154" s="163"/>
+      <c r="K154" s="164"/>
+      <c r="L154" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="F154" s="202"/>
-      <c r="G154" s="202"/>
-      <c r="H154" s="202"/>
-      <c r="I154" s="202"/>
-      <c r="J154" s="202"/>
-      <c r="K154" s="203"/>
-      <c r="L154" s="204" t="s">
-        <v>67</v>
-      </c>
-      <c r="M154" s="205"/>
-      <c r="N154" s="205"/>
-      <c r="O154" s="205"/>
-      <c r="P154" s="205"/>
-      <c r="Q154" s="205"/>
-      <c r="R154" s="205"/>
-      <c r="S154" s="205"/>
-      <c r="T154" s="205"/>
-      <c r="U154" s="205"/>
-      <c r="V154" s="205"/>
-      <c r="W154" s="205"/>
-      <c r="X154" s="205"/>
-      <c r="Y154" s="205"/>
-      <c r="Z154" s="205"/>
-      <c r="AA154" s="205"/>
-      <c r="AB154" s="205"/>
-      <c r="AC154" s="205"/>
-      <c r="AD154" s="205"/>
-      <c r="AE154" s="205"/>
-      <c r="AF154" s="205"/>
-      <c r="AG154" s="205"/>
-      <c r="AH154" s="205"/>
-      <c r="AI154" s="205"/>
-      <c r="AJ154" s="205"/>
-      <c r="AK154" s="205"/>
-      <c r="AL154" s="205"/>
-      <c r="AM154" s="205"/>
-      <c r="AN154" s="205"/>
-      <c r="AO154" s="205"/>
-      <c r="AP154" s="205"/>
-      <c r="AQ154" s="205"/>
-      <c r="AR154" s="205"/>
-      <c r="AS154" s="205"/>
-      <c r="AT154" s="205"/>
-      <c r="AU154" s="206"/>
+      <c r="M154" s="166"/>
+      <c r="N154" s="166"/>
+      <c r="O154" s="166"/>
+      <c r="P154" s="166"/>
+      <c r="Q154" s="166"/>
+      <c r="R154" s="166"/>
+      <c r="S154" s="166"/>
+      <c r="T154" s="166"/>
+      <c r="U154" s="166"/>
+      <c r="V154" s="166"/>
+      <c r="W154" s="166"/>
+      <c r="X154" s="166"/>
+      <c r="Y154" s="166"/>
+      <c r="Z154" s="166"/>
+      <c r="AA154" s="166"/>
+      <c r="AB154" s="166"/>
+      <c r="AC154" s="166"/>
+      <c r="AD154" s="166"/>
+      <c r="AE154" s="166"/>
+      <c r="AF154" s="166"/>
+      <c r="AG154" s="166"/>
+      <c r="AH154" s="166"/>
+      <c r="AI154" s="166"/>
+      <c r="AJ154" s="166"/>
+      <c r="AK154" s="166"/>
+      <c r="AL154" s="166"/>
+      <c r="AM154" s="166"/>
+      <c r="AN154" s="166"/>
+      <c r="AO154" s="166"/>
+      <c r="AP154" s="166"/>
+      <c r="AQ154" s="166"/>
+      <c r="AR154" s="166"/>
+      <c r="AS154" s="166"/>
+      <c r="AT154" s="166"/>
+      <c r="AU154" s="167"/>
       <c r="AV154" s="6"/>
       <c r="AW154" s="7"/>
     </row>
     <row r="155" spans="1:51" ht="13.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="207" t="s">
-        <v>68</v>
-      </c>
-      <c r="F155" s="208"/>
-      <c r="G155" s="208"/>
-      <c r="H155" s="208"/>
-      <c r="I155" s="208"/>
-      <c r="J155" s="208"/>
-      <c r="K155" s="209"/>
+      <c r="E155" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="F155" s="169"/>
+      <c r="G155" s="169"/>
+      <c r="H155" s="169"/>
+      <c r="I155" s="169"/>
+      <c r="J155" s="169"/>
+      <c r="K155" s="170"/>
       <c r="L155" s="130"/>
       <c r="M155" s="107"/>
       <c r="N155" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O155" s="107"/>
       <c r="P155" s="107"/>
@@ -7983,10 +7979,10 @@
       <c r="W155" s="110"/>
       <c r="X155" s="110"/>
       <c r="Y155" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z155" s="110" t="s">
         <v>70</v>
-      </c>
-      <c r="Z155" s="110" t="s">
-        <v>71</v>
       </c>
       <c r="AA155" s="110"/>
       <c r="AB155" s="110"/>
@@ -8015,17 +8011,17 @@
     <row r="156" spans="1:51" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="210"/>
-      <c r="F156" s="211"/>
-      <c r="G156" s="211"/>
-      <c r="H156" s="211"/>
-      <c r="I156" s="211"/>
-      <c r="J156" s="211"/>
-      <c r="K156" s="212"/>
+      <c r="E156" s="171"/>
+      <c r="F156" s="172"/>
+      <c r="G156" s="172"/>
+      <c r="H156" s="172"/>
+      <c r="I156" s="172"/>
+      <c r="J156" s="172"/>
+      <c r="K156" s="173"/>
       <c r="L156" s="131"/>
       <c r="M156" s="132"/>
       <c r="N156" s="132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O156" s="132"/>
       <c r="P156" s="132"/>
@@ -8038,10 +8034,10 @@
       <c r="W156" s="133"/>
       <c r="X156" s="133"/>
       <c r="Y156" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z156" s="133" t="s">
         <v>70</v>
-      </c>
-      <c r="Z156" s="133" t="s">
-        <v>71</v>
       </c>
       <c r="AA156" s="133"/>
       <c r="AB156" s="133"/>
@@ -8120,7 +8116,7 @@
       <c r="A158" s="3"/>
       <c r="D158" s="6"/>
       <c r="E158" s="127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F158" s="88"/>
       <c r="G158" s="6"/>
@@ -8221,7 +8217,7 @@
       <c r="D160" s="98"/>
       <c r="E160" s="98"/>
       <c r="F160" s="135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G160" s="96"/>
       <c r="H160" s="96"/>
@@ -8272,7 +8268,7 @@
       <c r="D161" s="98"/>
       <c r="E161" s="126"/>
       <c r="F161" s="135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G161" s="96"/>
       <c r="H161" s="96"/>
@@ -8322,53 +8318,53 @@
       <c r="A162" s="3"/>
       <c r="D162" s="98"/>
       <c r="E162" s="136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F162" s="137"/>
       <c r="G162" s="137"/>
       <c r="H162" s="138"/>
-      <c r="I162" s="201" t="s">
+      <c r="I162" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="J162" s="163"/>
+      <c r="K162" s="163"/>
+      <c r="L162" s="163"/>
+      <c r="M162" s="163"/>
+      <c r="N162" s="163"/>
+      <c r="O162" s="163"/>
+      <c r="P162" s="163"/>
+      <c r="Q162" s="163"/>
+      <c r="R162" s="163"/>
+      <c r="S162" s="163"/>
+      <c r="T162" s="163"/>
+      <c r="U162" s="163"/>
+      <c r="V162" s="163"/>
+      <c r="W162" s="163"/>
+      <c r="X162" s="163"/>
+      <c r="Y162" s="163"/>
+      <c r="Z162" s="163"/>
+      <c r="AA162" s="163"/>
+      <c r="AB162" s="163"/>
+      <c r="AC162" s="163"/>
+      <c r="AD162" s="163"/>
+      <c r="AE162" s="163"/>
+      <c r="AF162" s="163"/>
+      <c r="AG162" s="163"/>
+      <c r="AH162" s="163"/>
+      <c r="AI162" s="164"/>
+      <c r="AJ162" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="J162" s="202"/>
-      <c r="K162" s="202"/>
-      <c r="L162" s="202"/>
-      <c r="M162" s="202"/>
-      <c r="N162" s="202"/>
-      <c r="O162" s="202"/>
-      <c r="P162" s="202"/>
-      <c r="Q162" s="202"/>
-      <c r="R162" s="202"/>
-      <c r="S162" s="202"/>
-      <c r="T162" s="202"/>
-      <c r="U162" s="202"/>
-      <c r="V162" s="202"/>
-      <c r="W162" s="202"/>
-      <c r="X162" s="202"/>
-      <c r="Y162" s="202"/>
-      <c r="Z162" s="202"/>
-      <c r="AA162" s="202"/>
-      <c r="AB162" s="202"/>
-      <c r="AC162" s="202"/>
-      <c r="AD162" s="202"/>
-      <c r="AE162" s="202"/>
-      <c r="AF162" s="202"/>
-      <c r="AG162" s="202"/>
-      <c r="AH162" s="202"/>
-      <c r="AI162" s="203"/>
-      <c r="AJ162" s="201" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK162" s="202"/>
-      <c r="AL162" s="202"/>
-      <c r="AM162" s="202"/>
-      <c r="AN162" s="202"/>
-      <c r="AO162" s="202"/>
-      <c r="AP162" s="202"/>
-      <c r="AQ162" s="202"/>
-      <c r="AR162" s="202"/>
-      <c r="AS162" s="202"/>
-      <c r="AT162" s="203"/>
+      <c r="AK162" s="163"/>
+      <c r="AL162" s="163"/>
+      <c r="AM162" s="163"/>
+      <c r="AN162" s="163"/>
+      <c r="AO162" s="163"/>
+      <c r="AP162" s="163"/>
+      <c r="AQ162" s="163"/>
+      <c r="AR162" s="163"/>
+      <c r="AS162" s="163"/>
+      <c r="AT162" s="164"/>
       <c r="AU162" s="96"/>
       <c r="AV162" s="6"/>
       <c r="AW162" s="7"/>
@@ -8376,14 +8372,14 @@
     <row r="163" spans="1:50" ht="13.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="D163" s="98"/>
-      <c r="E163" s="213" t="s">
+      <c r="E163" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="F163" s="175"/>
+      <c r="G163" s="175"/>
+      <c r="H163" s="176"/>
+      <c r="I163" s="139" t="s">
         <v>79</v>
-      </c>
-      <c r="F163" s="214"/>
-      <c r="G163" s="214"/>
-      <c r="H163" s="215"/>
-      <c r="I163" s="139" t="s">
-        <v>80</v>
       </c>
       <c r="J163" s="140"/>
       <c r="K163" s="140"/>
@@ -8412,7 +8408,7 @@
       <c r="AH163" s="140"/>
       <c r="AI163" s="142"/>
       <c r="AJ163" s="112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK163" s="140"/>
       <c r="AL163" s="140"/>
@@ -8431,14 +8427,14 @@
     <row r="164" spans="1:50" ht="13.5" customHeight="1">
       <c r="A164" s="3"/>
       <c r="D164" s="98"/>
-      <c r="E164" s="198" t="s">
+      <c r="E164" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="F164" s="160"/>
+      <c r="G164" s="160"/>
+      <c r="H164" s="161"/>
+      <c r="I164" s="143" t="s">
         <v>81</v>
-      </c>
-      <c r="F164" s="199"/>
-      <c r="G164" s="199"/>
-      <c r="H164" s="200"/>
-      <c r="I164" s="143" t="s">
-        <v>82</v>
       </c>
       <c r="J164" s="144"/>
       <c r="K164" s="144"/>
@@ -8467,7 +8463,7 @@
       <c r="AH164" s="144"/>
       <c r="AI164" s="146"/>
       <c r="AJ164" s="147" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK164" s="144"/>
       <c r="AL164" s="144"/>
@@ -8587,7 +8583,7 @@
     <row r="167" spans="1:50" ht="13.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="D167" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E167" s="96"/>
       <c r="F167" s="96"/>
@@ -8736,7 +8732,7 @@
     <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="A170" s="3"/>
       <c r="D170" s="98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E170" s="96"/>
       <c r="F170" s="96"/>
@@ -8975,6 +8971,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM43:AW43"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="A81:I83"/>
+    <mergeCell ref="J81:O83"/>
+    <mergeCell ref="P81:U83"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="AA81:AL82"/>
+    <mergeCell ref="V83:Z83"/>
+    <mergeCell ref="AA83:AG83"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AO81:AQ81"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM82:AN82"/>
+    <mergeCell ref="AO82:AQ82"/>
+    <mergeCell ref="AR82:AS82"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
     <mergeCell ref="AT122:AW122"/>
     <mergeCell ref="AM121:AN121"/>
     <mergeCell ref="E164:H164"/>
@@ -8991,65 +9046,6 @@
     <mergeCell ref="AA121:AL122"/>
     <mergeCell ref="V123:Z123"/>
     <mergeCell ref="AA123:AG123"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="A81:I83"/>
-    <mergeCell ref="J81:O83"/>
-    <mergeCell ref="P81:U83"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="AA81:AL82"/>
-    <mergeCell ref="V83:Z83"/>
-    <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="AM43:AW43"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>

--- a/ThietKe/Login.xlsx
+++ b/ThietKe/Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579F390C-0B17-4CD6-9139-769F92EC86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D088CB9-BD3D-4C0B-A6A8-857E54F8278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29ADC7FD-C96C-40F4-A327-3212198E3E4A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Login" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Login!$A$1:$AW$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Login!$A$1:$AW$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -485,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1031,24 +1031,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1465,19 +1454,131 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,12 +1588,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,126 +1648,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2103,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AC83E4-A177-4B9D-A805-72C341674143}">
-  <dimension ref="A1:BF174"/>
+  <dimension ref="A1:BF172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A166" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A155" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2119,187 +2094,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="186" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="186" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="187" t="s">
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="193" t="s">
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="179"/>
-      <c r="AM1" s="157" t="s">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="158"/>
-      <c r="AO1" s="205" t="s">
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="207"/>
-      <c r="AR1" s="157" t="s">
+      <c r="AP1" s="183"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="158"/>
-      <c r="AT1" s="208">
+      <c r="AS1" s="186"/>
+      <c r="AT1" s="187">
         <v>44936</v>
       </c>
-      <c r="AU1" s="209"/>
-      <c r="AV1" s="209"/>
-      <c r="AW1" s="210"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="189"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="180"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="211" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="212"/>
-      <c r="AO2" s="213"/>
-      <c r="AP2" s="214"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="211" t="s">
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="153"/>
+      <c r="AR2" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="155"/>
-      <c r="AV2" s="155"/>
-      <c r="AW2" s="156"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="190"/>
+      <c r="AU2" s="191"/>
+      <c r="AV2" s="191"/>
+      <c r="AW2" s="192"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="195" t="s">
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="198" t="s">
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="200"/>
-      <c r="AH3" s="201" t="s">
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="202"/>
-      <c r="AK3" s="202"/>
-      <c r="AL3" s="203"/>
-      <c r="AM3" s="198" t="s">
+      <c r="AI3" s="179"/>
+      <c r="AJ3" s="179"/>
+      <c r="AK3" s="179"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="199"/>
-      <c r="AO3" s="199"/>
-      <c r="AP3" s="199"/>
-      <c r="AQ3" s="199"/>
-      <c r="AR3" s="199"/>
-      <c r="AS3" s="199"/>
-      <c r="AT3" s="199"/>
-      <c r="AU3" s="199"/>
-      <c r="AV3" s="199"/>
-      <c r="AW3" s="204"/>
+      <c r="AN3" s="176"/>
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="176"/>
+      <c r="AQ3" s="176"/>
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="181"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -3066,187 +3041,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="186" t="s">
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="178"/>
-      <c r="L41" s="178"/>
-      <c r="M41" s="178"/>
-      <c r="N41" s="178"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="186" t="s">
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
-      <c r="S41" s="178"/>
-      <c r="T41" s="178"/>
-      <c r="U41" s="179"/>
-      <c r="V41" s="187" t="s">
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="188"/>
-      <c r="X41" s="188"/>
-      <c r="Y41" s="188"/>
-      <c r="Z41" s="189"/>
-      <c r="AA41" s="193" t="s">
+      <c r="W41" s="165"/>
+      <c r="X41" s="165"/>
+      <c r="Y41" s="165"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="178"/>
-      <c r="AC41" s="178"/>
-      <c r="AD41" s="178"/>
-      <c r="AE41" s="178"/>
-      <c r="AF41" s="178"/>
-      <c r="AG41" s="178"/>
-      <c r="AH41" s="178"/>
-      <c r="AI41" s="178"/>
-      <c r="AJ41" s="178"/>
-      <c r="AK41" s="178"/>
-      <c r="AL41" s="179"/>
-      <c r="AM41" s="157" t="s">
+      <c r="AB41" s="155"/>
+      <c r="AC41" s="155"/>
+      <c r="AD41" s="155"/>
+      <c r="AE41" s="155"/>
+      <c r="AF41" s="155"/>
+      <c r="AG41" s="155"/>
+      <c r="AH41" s="155"/>
+      <c r="AI41" s="155"/>
+      <c r="AJ41" s="155"/>
+      <c r="AK41" s="155"/>
+      <c r="AL41" s="156"/>
+      <c r="AM41" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="158"/>
-      <c r="AO41" s="205" t="s">
+      <c r="AN41" s="186"/>
+      <c r="AO41" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="206"/>
-      <c r="AQ41" s="207"/>
-      <c r="AR41" s="157" t="s">
+      <c r="AP41" s="183"/>
+      <c r="AQ41" s="184"/>
+      <c r="AR41" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="158"/>
-      <c r="AT41" s="208">
+      <c r="AS41" s="186"/>
+      <c r="AT41" s="187">
         <v>44936</v>
       </c>
-      <c r="AU41" s="209"/>
-      <c r="AV41" s="209"/>
-      <c r="AW41" s="210"/>
+      <c r="AU41" s="188"/>
+      <c r="AV41" s="188"/>
+      <c r="AW41" s="189"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="180"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="181"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="181"/>
-      <c r="O42" s="182"/>
-      <c r="P42" s="180"/>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="181"/>
-      <c r="S42" s="181"/>
-      <c r="T42" s="181"/>
-      <c r="U42" s="182"/>
-      <c r="V42" s="190"/>
-      <c r="W42" s="191"/>
-      <c r="X42" s="191"/>
-      <c r="Y42" s="191"/>
-      <c r="Z42" s="192"/>
-      <c r="AA42" s="194"/>
-      <c r="AB42" s="181"/>
-      <c r="AC42" s="181"/>
-      <c r="AD42" s="181"/>
-      <c r="AE42" s="181"/>
-      <c r="AF42" s="181"/>
-      <c r="AG42" s="181"/>
-      <c r="AH42" s="181"/>
-      <c r="AI42" s="181"/>
-      <c r="AJ42" s="181"/>
-      <c r="AK42" s="181"/>
-      <c r="AL42" s="182"/>
-      <c r="AM42" s="211" t="s">
+      <c r="A42" s="157"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="159"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="158"/>
+      <c r="R42" s="158"/>
+      <c r="S42" s="158"/>
+      <c r="T42" s="158"/>
+      <c r="U42" s="159"/>
+      <c r="V42" s="167"/>
+      <c r="W42" s="168"/>
+      <c r="X42" s="168"/>
+      <c r="Y42" s="168"/>
+      <c r="Z42" s="169"/>
+      <c r="AA42" s="171"/>
+      <c r="AB42" s="158"/>
+      <c r="AC42" s="158"/>
+      <c r="AD42" s="158"/>
+      <c r="AE42" s="158"/>
+      <c r="AF42" s="158"/>
+      <c r="AG42" s="158"/>
+      <c r="AH42" s="158"/>
+      <c r="AI42" s="158"/>
+      <c r="AJ42" s="158"/>
+      <c r="AK42" s="158"/>
+      <c r="AL42" s="159"/>
+      <c r="AM42" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="212"/>
-      <c r="AO42" s="213"/>
-      <c r="AP42" s="214"/>
-      <c r="AQ42" s="215"/>
-      <c r="AR42" s="211" t="s">
+      <c r="AN42" s="150"/>
+      <c r="AO42" s="151"/>
+      <c r="AP42" s="152"/>
+      <c r="AQ42" s="153"/>
+      <c r="AR42" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="212"/>
-      <c r="AT42" s="154"/>
-      <c r="AU42" s="155"/>
-      <c r="AV42" s="155"/>
-      <c r="AW42" s="156"/>
+      <c r="AS42" s="150"/>
+      <c r="AT42" s="190"/>
+      <c r="AU42" s="191"/>
+      <c r="AV42" s="191"/>
+      <c r="AW42" s="192"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="183"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="184"/>
-      <c r="L43" s="184"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="185"/>
-      <c r="P43" s="183"/>
-      <c r="Q43" s="184"/>
-      <c r="R43" s="184"/>
-      <c r="S43" s="184"/>
-      <c r="T43" s="184"/>
-      <c r="U43" s="185"/>
-      <c r="V43" s="195" t="s">
+      <c r="A43" s="160"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="162"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="162"/>
+      <c r="V43" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="196"/>
-      <c r="X43" s="196"/>
-      <c r="Y43" s="196"/>
-      <c r="Z43" s="197"/>
-      <c r="AA43" s="198" t="s">
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="174"/>
+      <c r="AA43" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="199"/>
-      <c r="AC43" s="199"/>
-      <c r="AD43" s="199"/>
-      <c r="AE43" s="199"/>
-      <c r="AF43" s="199"/>
-      <c r="AG43" s="200"/>
-      <c r="AH43" s="201" t="s">
+      <c r="AB43" s="176"/>
+      <c r="AC43" s="176"/>
+      <c r="AD43" s="176"/>
+      <c r="AE43" s="176"/>
+      <c r="AF43" s="176"/>
+      <c r="AG43" s="177"/>
+      <c r="AH43" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="202"/>
-      <c r="AJ43" s="202"/>
-      <c r="AK43" s="202"/>
-      <c r="AL43" s="203"/>
-      <c r="AM43" s="198" t="s">
+      <c r="AI43" s="179"/>
+      <c r="AJ43" s="179"/>
+      <c r="AK43" s="179"/>
+      <c r="AL43" s="180"/>
+      <c r="AM43" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="199"/>
-      <c r="AO43" s="199"/>
-      <c r="AP43" s="199"/>
-      <c r="AQ43" s="199"/>
-      <c r="AR43" s="199"/>
-      <c r="AS43" s="199"/>
-      <c r="AT43" s="199"/>
-      <c r="AU43" s="199"/>
-      <c r="AV43" s="199"/>
-      <c r="AW43" s="204"/>
+      <c r="AN43" s="176"/>
+      <c r="AO43" s="176"/>
+      <c r="AP43" s="176"/>
+      <c r="AQ43" s="176"/>
+      <c r="AR43" s="176"/>
+      <c r="AS43" s="176"/>
+      <c r="AT43" s="176"/>
+      <c r="AU43" s="176"/>
+      <c r="AV43" s="176"/>
+      <c r="AW43" s="181"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -4988,187 +4963,187 @@
       <c r="AW80" s="7"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A81" s="177" t="s">
+      <c r="A81" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="178"/>
-      <c r="C81" s="178"/>
-      <c r="D81" s="178"/>
-      <c r="E81" s="178"/>
-      <c r="F81" s="178"/>
-      <c r="G81" s="178"/>
-      <c r="H81" s="178"/>
-      <c r="I81" s="179"/>
-      <c r="J81" s="186" t="s">
+      <c r="B81" s="155"/>
+      <c r="C81" s="155"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K81" s="178"/>
-      <c r="L81" s="178"/>
-      <c r="M81" s="178"/>
-      <c r="N81" s="178"/>
-      <c r="O81" s="179"/>
-      <c r="P81" s="186" t="s">
+      <c r="K81" s="155"/>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="156"/>
+      <c r="P81" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="178"/>
-      <c r="R81" s="178"/>
-      <c r="S81" s="178"/>
-      <c r="T81" s="178"/>
-      <c r="U81" s="179"/>
-      <c r="V81" s="187" t="s">
+      <c r="Q81" s="155"/>
+      <c r="R81" s="155"/>
+      <c r="S81" s="155"/>
+      <c r="T81" s="155"/>
+      <c r="U81" s="156"/>
+      <c r="V81" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W81" s="188"/>
-      <c r="X81" s="188"/>
-      <c r="Y81" s="188"/>
-      <c r="Z81" s="189"/>
-      <c r="AA81" s="193" t="s">
+      <c r="W81" s="165"/>
+      <c r="X81" s="165"/>
+      <c r="Y81" s="165"/>
+      <c r="Z81" s="166"/>
+      <c r="AA81" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB81" s="178"/>
-      <c r="AC81" s="178"/>
-      <c r="AD81" s="178"/>
-      <c r="AE81" s="178"/>
-      <c r="AF81" s="178"/>
-      <c r="AG81" s="178"/>
-      <c r="AH81" s="178"/>
-      <c r="AI81" s="178"/>
-      <c r="AJ81" s="178"/>
-      <c r="AK81" s="178"/>
-      <c r="AL81" s="179"/>
-      <c r="AM81" s="157" t="s">
+      <c r="AB81" s="155"/>
+      <c r="AC81" s="155"/>
+      <c r="AD81" s="155"/>
+      <c r="AE81" s="155"/>
+      <c r="AF81" s="155"/>
+      <c r="AG81" s="155"/>
+      <c r="AH81" s="155"/>
+      <c r="AI81" s="155"/>
+      <c r="AJ81" s="155"/>
+      <c r="AK81" s="155"/>
+      <c r="AL81" s="156"/>
+      <c r="AM81" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN81" s="158"/>
-      <c r="AO81" s="205" t="s">
+      <c r="AN81" s="186"/>
+      <c r="AO81" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP81" s="206"/>
-      <c r="AQ81" s="207"/>
-      <c r="AR81" s="157" t="s">
+      <c r="AP81" s="183"/>
+      <c r="AQ81" s="184"/>
+      <c r="AR81" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS81" s="158"/>
-      <c r="AT81" s="208">
+      <c r="AS81" s="186"/>
+      <c r="AT81" s="187">
         <v>44936</v>
       </c>
-      <c r="AU81" s="209"/>
-      <c r="AV81" s="209"/>
-      <c r="AW81" s="210"/>
+      <c r="AU81" s="188"/>
+      <c r="AV81" s="188"/>
+      <c r="AW81" s="189"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A82" s="180"/>
-      <c r="B82" s="181"/>
-      <c r="C82" s="181"/>
-      <c r="D82" s="181"/>
-      <c r="E82" s="181"/>
-      <c r="F82" s="181"/>
-      <c r="G82" s="181"/>
-      <c r="H82" s="181"/>
-      <c r="I82" s="182"/>
-      <c r="J82" s="180"/>
-      <c r="K82" s="181"/>
-      <c r="L82" s="181"/>
-      <c r="M82" s="181"/>
-      <c r="N82" s="181"/>
-      <c r="O82" s="182"/>
-      <c r="P82" s="180"/>
-      <c r="Q82" s="181"/>
-      <c r="R82" s="181"/>
-      <c r="S82" s="181"/>
-      <c r="T82" s="181"/>
-      <c r="U82" s="182"/>
-      <c r="V82" s="190"/>
-      <c r="W82" s="191"/>
-      <c r="X82" s="191"/>
-      <c r="Y82" s="191"/>
-      <c r="Z82" s="192"/>
-      <c r="AA82" s="194"/>
-      <c r="AB82" s="181"/>
-      <c r="AC82" s="181"/>
-      <c r="AD82" s="181"/>
-      <c r="AE82" s="181"/>
-      <c r="AF82" s="181"/>
-      <c r="AG82" s="181"/>
-      <c r="AH82" s="181"/>
-      <c r="AI82" s="181"/>
-      <c r="AJ82" s="181"/>
-      <c r="AK82" s="181"/>
-      <c r="AL82" s="182"/>
-      <c r="AM82" s="211" t="s">
+      <c r="A82" s="157"/>
+      <c r="B82" s="158"/>
+      <c r="C82" s="158"/>
+      <c r="D82" s="158"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="158"/>
+      <c r="H82" s="158"/>
+      <c r="I82" s="159"/>
+      <c r="J82" s="157"/>
+      <c r="K82" s="158"/>
+      <c r="L82" s="158"/>
+      <c r="M82" s="158"/>
+      <c r="N82" s="158"/>
+      <c r="O82" s="159"/>
+      <c r="P82" s="157"/>
+      <c r="Q82" s="158"/>
+      <c r="R82" s="158"/>
+      <c r="S82" s="158"/>
+      <c r="T82" s="158"/>
+      <c r="U82" s="159"/>
+      <c r="V82" s="167"/>
+      <c r="W82" s="168"/>
+      <c r="X82" s="168"/>
+      <c r="Y82" s="168"/>
+      <c r="Z82" s="169"/>
+      <c r="AA82" s="171"/>
+      <c r="AB82" s="158"/>
+      <c r="AC82" s="158"/>
+      <c r="AD82" s="158"/>
+      <c r="AE82" s="158"/>
+      <c r="AF82" s="158"/>
+      <c r="AG82" s="158"/>
+      <c r="AH82" s="158"/>
+      <c r="AI82" s="158"/>
+      <c r="AJ82" s="158"/>
+      <c r="AK82" s="158"/>
+      <c r="AL82" s="159"/>
+      <c r="AM82" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AN82" s="212"/>
-      <c r="AO82" s="213"/>
-      <c r="AP82" s="214"/>
-      <c r="AQ82" s="215"/>
-      <c r="AR82" s="211" t="s">
+      <c r="AN82" s="150"/>
+      <c r="AO82" s="151"/>
+      <c r="AP82" s="152"/>
+      <c r="AQ82" s="153"/>
+      <c r="AR82" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="AS82" s="212"/>
-      <c r="AT82" s="154"/>
-      <c r="AU82" s="155"/>
-      <c r="AV82" s="155"/>
-      <c r="AW82" s="156"/>
+      <c r="AS82" s="150"/>
+      <c r="AT82" s="190"/>
+      <c r="AU82" s="191"/>
+      <c r="AV82" s="191"/>
+      <c r="AW82" s="192"/>
     </row>
     <row r="83" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A83" s="183"/>
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="184"/>
-      <c r="F83" s="184"/>
-      <c r="G83" s="184"/>
-      <c r="H83" s="184"/>
-      <c r="I83" s="185"/>
-      <c r="J83" s="183"/>
-      <c r="K83" s="184"/>
-      <c r="L83" s="184"/>
-      <c r="M83" s="184"/>
-      <c r="N83" s="184"/>
-      <c r="O83" s="185"/>
-      <c r="P83" s="183"/>
-      <c r="Q83" s="184"/>
-      <c r="R83" s="184"/>
-      <c r="S83" s="184"/>
-      <c r="T83" s="184"/>
-      <c r="U83" s="185"/>
-      <c r="V83" s="195" t="s">
+      <c r="A83" s="160"/>
+      <c r="B83" s="161"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="161"/>
+      <c r="H83" s="161"/>
+      <c r="I83" s="162"/>
+      <c r="J83" s="160"/>
+      <c r="K83" s="161"/>
+      <c r="L83" s="161"/>
+      <c r="M83" s="161"/>
+      <c r="N83" s="161"/>
+      <c r="O83" s="162"/>
+      <c r="P83" s="160"/>
+      <c r="Q83" s="161"/>
+      <c r="R83" s="161"/>
+      <c r="S83" s="161"/>
+      <c r="T83" s="161"/>
+      <c r="U83" s="162"/>
+      <c r="V83" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W83" s="196"/>
-      <c r="X83" s="196"/>
-      <c r="Y83" s="196"/>
-      <c r="Z83" s="197"/>
-      <c r="AA83" s="198" t="s">
+      <c r="W83" s="173"/>
+      <c r="X83" s="173"/>
+      <c r="Y83" s="173"/>
+      <c r="Z83" s="174"/>
+      <c r="AA83" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="199"/>
-      <c r="AC83" s="199"/>
-      <c r="AD83" s="199"/>
-      <c r="AE83" s="199"/>
-      <c r="AF83" s="199"/>
-      <c r="AG83" s="200"/>
-      <c r="AH83" s="201" t="s">
+      <c r="AB83" s="176"/>
+      <c r="AC83" s="176"/>
+      <c r="AD83" s="176"/>
+      <c r="AE83" s="176"/>
+      <c r="AF83" s="176"/>
+      <c r="AG83" s="177"/>
+      <c r="AH83" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI83" s="202"/>
-      <c r="AJ83" s="202"/>
-      <c r="AK83" s="202"/>
-      <c r="AL83" s="203"/>
-      <c r="AM83" s="198" t="s">
+      <c r="AI83" s="179"/>
+      <c r="AJ83" s="179"/>
+      <c r="AK83" s="179"/>
+      <c r="AL83" s="180"/>
+      <c r="AM83" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN83" s="199"/>
-      <c r="AO83" s="199"/>
-      <c r="AP83" s="199"/>
-      <c r="AQ83" s="199"/>
-      <c r="AR83" s="199"/>
-      <c r="AS83" s="199"/>
-      <c r="AT83" s="199"/>
-      <c r="AU83" s="199"/>
-      <c r="AV83" s="199"/>
-      <c r="AW83" s="204"/>
+      <c r="AN83" s="176"/>
+      <c r="AO83" s="176"/>
+      <c r="AP83" s="176"/>
+      <c r="AQ83" s="176"/>
+      <c r="AR83" s="176"/>
+      <c r="AS83" s="176"/>
+      <c r="AT83" s="176"/>
+      <c r="AU83" s="176"/>
+      <c r="AV83" s="176"/>
+      <c r="AW83" s="181"/>
     </row>
     <row r="84" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="3"/>
@@ -6285,187 +6260,187 @@
       <c r="AW120" s="7"/>
     </row>
     <row r="121" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A121" s="177" t="s">
+      <c r="A121" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="178"/>
-      <c r="C121" s="178"/>
-      <c r="D121" s="178"/>
-      <c r="E121" s="178"/>
-      <c r="F121" s="178"/>
-      <c r="G121" s="178"/>
-      <c r="H121" s="178"/>
-      <c r="I121" s="179"/>
-      <c r="J121" s="186" t="s">
+      <c r="B121" s="155"/>
+      <c r="C121" s="155"/>
+      <c r="D121" s="155"/>
+      <c r="E121" s="155"/>
+      <c r="F121" s="155"/>
+      <c r="G121" s="155"/>
+      <c r="H121" s="155"/>
+      <c r="I121" s="156"/>
+      <c r="J121" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="K121" s="178"/>
-      <c r="L121" s="178"/>
-      <c r="M121" s="178"/>
-      <c r="N121" s="178"/>
-      <c r="O121" s="179"/>
-      <c r="P121" s="186" t="s">
+      <c r="K121" s="155"/>
+      <c r="L121" s="155"/>
+      <c r="M121" s="155"/>
+      <c r="N121" s="155"/>
+      <c r="O121" s="156"/>
+      <c r="P121" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="Q121" s="178"/>
-      <c r="R121" s="178"/>
-      <c r="S121" s="178"/>
-      <c r="T121" s="178"/>
-      <c r="U121" s="179"/>
-      <c r="V121" s="187" t="s">
+      <c r="Q121" s="155"/>
+      <c r="R121" s="155"/>
+      <c r="S121" s="155"/>
+      <c r="T121" s="155"/>
+      <c r="U121" s="156"/>
+      <c r="V121" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="W121" s="188"/>
-      <c r="X121" s="188"/>
-      <c r="Y121" s="188"/>
-      <c r="Z121" s="189"/>
-      <c r="AA121" s="193" t="s">
+      <c r="W121" s="165"/>
+      <c r="X121" s="165"/>
+      <c r="Y121" s="165"/>
+      <c r="Z121" s="166"/>
+      <c r="AA121" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AB121" s="178"/>
-      <c r="AC121" s="178"/>
-      <c r="AD121" s="178"/>
-      <c r="AE121" s="178"/>
-      <c r="AF121" s="178"/>
-      <c r="AG121" s="178"/>
-      <c r="AH121" s="178"/>
-      <c r="AI121" s="178"/>
-      <c r="AJ121" s="178"/>
-      <c r="AK121" s="178"/>
-      <c r="AL121" s="179"/>
-      <c r="AM121" s="157" t="s">
+      <c r="AB121" s="155"/>
+      <c r="AC121" s="155"/>
+      <c r="AD121" s="155"/>
+      <c r="AE121" s="155"/>
+      <c r="AF121" s="155"/>
+      <c r="AG121" s="155"/>
+      <c r="AH121" s="155"/>
+      <c r="AI121" s="155"/>
+      <c r="AJ121" s="155"/>
+      <c r="AK121" s="155"/>
+      <c r="AL121" s="156"/>
+      <c r="AM121" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AN121" s="158"/>
-      <c r="AO121" s="205" t="s">
+      <c r="AN121" s="186"/>
+      <c r="AO121" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AP121" s="206"/>
-      <c r="AQ121" s="207"/>
-      <c r="AR121" s="157" t="s">
+      <c r="AP121" s="183"/>
+      <c r="AQ121" s="184"/>
+      <c r="AR121" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AS121" s="158"/>
-      <c r="AT121" s="208">
+      <c r="AS121" s="186"/>
+      <c r="AT121" s="187">
         <v>44936</v>
       </c>
-      <c r="AU121" s="209"/>
-      <c r="AV121" s="209"/>
-      <c r="AW121" s="210"/>
+      <c r="AU121" s="188"/>
+      <c r="AV121" s="188"/>
+      <c r="AW121" s="189"/>
     </row>
     <row r="122" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A122" s="180"/>
-      <c r="B122" s="181"/>
-      <c r="C122" s="181"/>
-      <c r="D122" s="181"/>
-      <c r="E122" s="181"/>
-      <c r="F122" s="181"/>
-      <c r="G122" s="181"/>
-      <c r="H122" s="181"/>
-      <c r="I122" s="182"/>
-      <c r="J122" s="180"/>
-      <c r="K122" s="181"/>
-      <c r="L122" s="181"/>
-      <c r="M122" s="181"/>
-      <c r="N122" s="181"/>
-      <c r="O122" s="182"/>
-      <c r="P122" s="180"/>
-      <c r="Q122" s="181"/>
-      <c r="R122" s="181"/>
-      <c r="S122" s="181"/>
-      <c r="T122" s="181"/>
-      <c r="U122" s="182"/>
-      <c r="V122" s="190"/>
-      <c r="W122" s="191"/>
-      <c r="X122" s="191"/>
-      <c r="Y122" s="191"/>
-      <c r="Z122" s="192"/>
-      <c r="AA122" s="194"/>
-      <c r="AB122" s="181"/>
-      <c r="AC122" s="181"/>
-      <c r="AD122" s="181"/>
-      <c r="AE122" s="181"/>
-      <c r="AF122" s="181"/>
-      <c r="AG122" s="181"/>
-      <c r="AH122" s="181"/>
-      <c r="AI122" s="181"/>
-      <c r="AJ122" s="181"/>
-      <c r="AK122" s="181"/>
-      <c r="AL122" s="182"/>
-      <c r="AM122" s="211" t="s">
+      <c r="A122" s="157"/>
+      <c r="B122" s="158"/>
+      <c r="C122" s="158"/>
+      <c r="D122" s="158"/>
+      <c r="E122" s="158"/>
+      <c r="F122" s="158"/>
+      <c r="G122" s="158"/>
+      <c r="H122" s="158"/>
+      <c r="I122" s="159"/>
+      <c r="J122" s="157"/>
+      <c r="K122" s="158"/>
+      <c r="L122" s="158"/>
+      <c r="M122" s="158"/>
+      <c r="N122" s="158"/>
+      <c r="O122" s="159"/>
+      <c r="P122" s="157"/>
+      <c r="Q122" s="158"/>
+      <c r="R122" s="158"/>
+      <c r="S122" s="158"/>
+      <c r="T122" s="158"/>
+      <c r="U122" s="159"/>
+      <c r="V122" s="167"/>
+      <c r="W122" s="168"/>
+      <c r="X122" s="168"/>
+      <c r="Y122" s="168"/>
+      <c r="Z122" s="169"/>
+      <c r="AA122" s="171"/>
+      <c r="AB122" s="158"/>
+      <c r="AC122" s="158"/>
+      <c r="AD122" s="158"/>
+      <c r="AE122" s="158"/>
+      <c r="AF122" s="158"/>
+      <c r="AG122" s="158"/>
+      <c r="AH122" s="158"/>
+      <c r="AI122" s="158"/>
+      <c r="AJ122" s="158"/>
+      <c r="AK122" s="158"/>
+      <c r="AL122" s="159"/>
+      <c r="AM122" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AN122" s="212"/>
-      <c r="AO122" s="213"/>
-      <c r="AP122" s="214"/>
-      <c r="AQ122" s="215"/>
-      <c r="AR122" s="211" t="s">
+      <c r="AN122" s="150"/>
+      <c r="AO122" s="151"/>
+      <c r="AP122" s="152"/>
+      <c r="AQ122" s="153"/>
+      <c r="AR122" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="AS122" s="212"/>
-      <c r="AT122" s="154"/>
-      <c r="AU122" s="155"/>
-      <c r="AV122" s="155"/>
-      <c r="AW122" s="156"/>
+      <c r="AS122" s="150"/>
+      <c r="AT122" s="190"/>
+      <c r="AU122" s="191"/>
+      <c r="AV122" s="191"/>
+      <c r="AW122" s="192"/>
     </row>
     <row r="123" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A123" s="183"/>
-      <c r="B123" s="184"/>
-      <c r="C123" s="184"/>
-      <c r="D123" s="184"/>
-      <c r="E123" s="184"/>
-      <c r="F123" s="184"/>
-      <c r="G123" s="184"/>
-      <c r="H123" s="184"/>
-      <c r="I123" s="185"/>
-      <c r="J123" s="183"/>
-      <c r="K123" s="184"/>
-      <c r="L123" s="184"/>
-      <c r="M123" s="184"/>
-      <c r="N123" s="184"/>
-      <c r="O123" s="185"/>
-      <c r="P123" s="183"/>
-      <c r="Q123" s="184"/>
-      <c r="R123" s="184"/>
-      <c r="S123" s="184"/>
-      <c r="T123" s="184"/>
-      <c r="U123" s="185"/>
-      <c r="V123" s="195" t="s">
+      <c r="A123" s="160"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="161"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
+      <c r="F123" s="161"/>
+      <c r="G123" s="161"/>
+      <c r="H123" s="161"/>
+      <c r="I123" s="162"/>
+      <c r="J123" s="160"/>
+      <c r="K123" s="161"/>
+      <c r="L123" s="161"/>
+      <c r="M123" s="161"/>
+      <c r="N123" s="161"/>
+      <c r="O123" s="162"/>
+      <c r="P123" s="160"/>
+      <c r="Q123" s="161"/>
+      <c r="R123" s="161"/>
+      <c r="S123" s="161"/>
+      <c r="T123" s="161"/>
+      <c r="U123" s="162"/>
+      <c r="V123" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="W123" s="196"/>
-      <c r="X123" s="196"/>
-      <c r="Y123" s="196"/>
-      <c r="Z123" s="197"/>
-      <c r="AA123" s="198" t="s">
+      <c r="W123" s="173"/>
+      <c r="X123" s="173"/>
+      <c r="Y123" s="173"/>
+      <c r="Z123" s="174"/>
+      <c r="AA123" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AB123" s="199"/>
-      <c r="AC123" s="199"/>
-      <c r="AD123" s="199"/>
-      <c r="AE123" s="199"/>
-      <c r="AF123" s="199"/>
-      <c r="AG123" s="200"/>
-      <c r="AH123" s="201" t="s">
+      <c r="AB123" s="176"/>
+      <c r="AC123" s="176"/>
+      <c r="AD123" s="176"/>
+      <c r="AE123" s="176"/>
+      <c r="AF123" s="176"/>
+      <c r="AG123" s="177"/>
+      <c r="AH123" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AI123" s="202"/>
-      <c r="AJ123" s="202"/>
-      <c r="AK123" s="202"/>
-      <c r="AL123" s="203"/>
-      <c r="AM123" s="198" t="s">
+      <c r="AI123" s="179"/>
+      <c r="AJ123" s="179"/>
+      <c r="AK123" s="179"/>
+      <c r="AL123" s="180"/>
+      <c r="AM123" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AN123" s="199"/>
-      <c r="AO123" s="199"/>
-      <c r="AP123" s="199"/>
-      <c r="AQ123" s="199"/>
-      <c r="AR123" s="199"/>
-      <c r="AS123" s="199"/>
-      <c r="AT123" s="199"/>
-      <c r="AU123" s="199"/>
-      <c r="AV123" s="199"/>
-      <c r="AW123" s="204"/>
+      <c r="AN123" s="176"/>
+      <c r="AO123" s="176"/>
+      <c r="AP123" s="176"/>
+      <c r="AQ123" s="176"/>
+      <c r="AR123" s="176"/>
+      <c r="AS123" s="176"/>
+      <c r="AT123" s="176"/>
+      <c r="AU123" s="176"/>
+      <c r="AV123" s="176"/>
+      <c r="AW123" s="181"/>
     </row>
     <row r="124" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="3"/>
@@ -7901,68 +7876,68 @@
     <row r="154" spans="1:51" ht="13.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="162" t="s">
+      <c r="E154" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="F154" s="163"/>
-      <c r="G154" s="163"/>
-      <c r="H154" s="163"/>
-      <c r="I154" s="163"/>
-      <c r="J154" s="163"/>
-      <c r="K154" s="164"/>
-      <c r="L154" s="165" t="s">
+      <c r="F154" s="197"/>
+      <c r="G154" s="197"/>
+      <c r="H154" s="197"/>
+      <c r="I154" s="197"/>
+      <c r="J154" s="197"/>
+      <c r="K154" s="198"/>
+      <c r="L154" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="M154" s="166"/>
-      <c r="N154" s="166"/>
-      <c r="O154" s="166"/>
-      <c r="P154" s="166"/>
-      <c r="Q154" s="166"/>
-      <c r="R154" s="166"/>
-      <c r="S154" s="166"/>
-      <c r="T154" s="166"/>
-      <c r="U154" s="166"/>
-      <c r="V154" s="166"/>
-      <c r="W154" s="166"/>
-      <c r="X154" s="166"/>
-      <c r="Y154" s="166"/>
-      <c r="Z154" s="166"/>
-      <c r="AA154" s="166"/>
-      <c r="AB154" s="166"/>
-      <c r="AC154" s="166"/>
-      <c r="AD154" s="166"/>
-      <c r="AE154" s="166"/>
-      <c r="AF154" s="166"/>
-      <c r="AG154" s="166"/>
-      <c r="AH154" s="166"/>
-      <c r="AI154" s="166"/>
-      <c r="AJ154" s="166"/>
-      <c r="AK154" s="166"/>
-      <c r="AL154" s="166"/>
-      <c r="AM154" s="166"/>
-      <c r="AN154" s="166"/>
-      <c r="AO154" s="166"/>
-      <c r="AP154" s="166"/>
-      <c r="AQ154" s="166"/>
-      <c r="AR154" s="166"/>
-      <c r="AS154" s="166"/>
-      <c r="AT154" s="166"/>
-      <c r="AU154" s="167"/>
+      <c r="M154" s="200"/>
+      <c r="N154" s="200"/>
+      <c r="O154" s="200"/>
+      <c r="P154" s="200"/>
+      <c r="Q154" s="200"/>
+      <c r="R154" s="200"/>
+      <c r="S154" s="200"/>
+      <c r="T154" s="200"/>
+      <c r="U154" s="200"/>
+      <c r="V154" s="200"/>
+      <c r="W154" s="200"/>
+      <c r="X154" s="200"/>
+      <c r="Y154" s="200"/>
+      <c r="Z154" s="200"/>
+      <c r="AA154" s="200"/>
+      <c r="AB154" s="200"/>
+      <c r="AC154" s="200"/>
+      <c r="AD154" s="200"/>
+      <c r="AE154" s="200"/>
+      <c r="AF154" s="200"/>
+      <c r="AG154" s="200"/>
+      <c r="AH154" s="200"/>
+      <c r="AI154" s="200"/>
+      <c r="AJ154" s="200"/>
+      <c r="AK154" s="200"/>
+      <c r="AL154" s="200"/>
+      <c r="AM154" s="200"/>
+      <c r="AN154" s="200"/>
+      <c r="AO154" s="200"/>
+      <c r="AP154" s="200"/>
+      <c r="AQ154" s="200"/>
+      <c r="AR154" s="200"/>
+      <c r="AS154" s="200"/>
+      <c r="AT154" s="200"/>
+      <c r="AU154" s="201"/>
       <c r="AV154" s="6"/>
       <c r="AW154" s="7"/>
     </row>
     <row r="155" spans="1:51" ht="13.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="168" t="s">
+      <c r="E155" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="F155" s="169"/>
-      <c r="G155" s="169"/>
-      <c r="H155" s="169"/>
-      <c r="I155" s="169"/>
-      <c r="J155" s="169"/>
-      <c r="K155" s="170"/>
+      <c r="F155" s="203"/>
+      <c r="G155" s="203"/>
+      <c r="H155" s="203"/>
+      <c r="I155" s="203"/>
+      <c r="J155" s="203"/>
+      <c r="K155" s="204"/>
       <c r="L155" s="130"/>
       <c r="M155" s="107"/>
       <c r="N155" s="107" t="s">
@@ -8011,13 +7986,13 @@
     <row r="156" spans="1:51" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="171"/>
-      <c r="F156" s="172"/>
-      <c r="G156" s="172"/>
-      <c r="H156" s="172"/>
-      <c r="I156" s="172"/>
-      <c r="J156" s="172"/>
-      <c r="K156" s="173"/>
+      <c r="E156" s="205"/>
+      <c r="F156" s="206"/>
+      <c r="G156" s="206"/>
+      <c r="H156" s="206"/>
+      <c r="I156" s="206"/>
+      <c r="J156" s="206"/>
+      <c r="K156" s="207"/>
       <c r="L156" s="131"/>
       <c r="M156" s="132"/>
       <c r="N156" s="132" t="s">
@@ -8323,48 +8298,48 @@
       <c r="F162" s="137"/>
       <c r="G162" s="137"/>
       <c r="H162" s="138"/>
-      <c r="I162" s="162" t="s">
+      <c r="I162" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="J162" s="163"/>
-      <c r="K162" s="163"/>
-      <c r="L162" s="163"/>
-      <c r="M162" s="163"/>
-      <c r="N162" s="163"/>
-      <c r="O162" s="163"/>
-      <c r="P162" s="163"/>
-      <c r="Q162" s="163"/>
-      <c r="R162" s="163"/>
-      <c r="S162" s="163"/>
-      <c r="T162" s="163"/>
-      <c r="U162" s="163"/>
-      <c r="V162" s="163"/>
-      <c r="W162" s="163"/>
-      <c r="X162" s="163"/>
-      <c r="Y162" s="163"/>
-      <c r="Z162" s="163"/>
-      <c r="AA162" s="163"/>
-      <c r="AB162" s="163"/>
-      <c r="AC162" s="163"/>
-      <c r="AD162" s="163"/>
-      <c r="AE162" s="163"/>
-      <c r="AF162" s="163"/>
-      <c r="AG162" s="163"/>
-      <c r="AH162" s="163"/>
-      <c r="AI162" s="164"/>
-      <c r="AJ162" s="162" t="s">
+      <c r="J162" s="197"/>
+      <c r="K162" s="197"/>
+      <c r="L162" s="197"/>
+      <c r="M162" s="197"/>
+      <c r="N162" s="197"/>
+      <c r="O162" s="197"/>
+      <c r="P162" s="197"/>
+      <c r="Q162" s="197"/>
+      <c r="R162" s="197"/>
+      <c r="S162" s="197"/>
+      <c r="T162" s="197"/>
+      <c r="U162" s="197"/>
+      <c r="V162" s="197"/>
+      <c r="W162" s="197"/>
+      <c r="X162" s="197"/>
+      <c r="Y162" s="197"/>
+      <c r="Z162" s="197"/>
+      <c r="AA162" s="197"/>
+      <c r="AB162" s="197"/>
+      <c r="AC162" s="197"/>
+      <c r="AD162" s="197"/>
+      <c r="AE162" s="197"/>
+      <c r="AF162" s="197"/>
+      <c r="AG162" s="197"/>
+      <c r="AH162" s="197"/>
+      <c r="AI162" s="198"/>
+      <c r="AJ162" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="AK162" s="163"/>
-      <c r="AL162" s="163"/>
-      <c r="AM162" s="163"/>
-      <c r="AN162" s="163"/>
-      <c r="AO162" s="163"/>
-      <c r="AP162" s="163"/>
-      <c r="AQ162" s="163"/>
-      <c r="AR162" s="163"/>
-      <c r="AS162" s="163"/>
-      <c r="AT162" s="164"/>
+      <c r="AK162" s="197"/>
+      <c r="AL162" s="197"/>
+      <c r="AM162" s="197"/>
+      <c r="AN162" s="197"/>
+      <c r="AO162" s="197"/>
+      <c r="AP162" s="197"/>
+      <c r="AQ162" s="197"/>
+      <c r="AR162" s="197"/>
+      <c r="AS162" s="197"/>
+      <c r="AT162" s="198"/>
       <c r="AU162" s="96"/>
       <c r="AV162" s="6"/>
       <c r="AW162" s="7"/>
@@ -8372,12 +8347,12 @@
     <row r="163" spans="1:50" ht="13.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="D163" s="98"/>
-      <c r="E163" s="174" t="s">
+      <c r="E163" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="F163" s="175"/>
-      <c r="G163" s="175"/>
-      <c r="H163" s="176"/>
+      <c r="F163" s="209"/>
+      <c r="G163" s="209"/>
+      <c r="H163" s="210"/>
       <c r="I163" s="139" t="s">
         <v>79</v>
       </c>
@@ -8427,12 +8402,12 @@
     <row r="164" spans="1:50" ht="13.5" customHeight="1">
       <c r="A164" s="3"/>
       <c r="D164" s="98"/>
-      <c r="E164" s="159" t="s">
+      <c r="E164" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="F164" s="160"/>
-      <c r="G164" s="160"/>
-      <c r="H164" s="161"/>
+      <c r="F164" s="194"/>
+      <c r="G164" s="194"/>
+      <c r="H164" s="195"/>
       <c r="I164" s="143" t="s">
         <v>81</v>
       </c>
@@ -8781,60 +8756,51 @@
       <c r="AW170" s="7"/>
     </row>
     <row r="171" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A171" s="3"/>
-      <c r="D171" s="98"/>
-      <c r="E171" s="96"/>
-      <c r="F171" s="96"/>
-      <c r="G171" s="96"/>
-      <c r="H171" s="96"/>
-      <c r="I171" s="96"/>
-      <c r="J171" s="96"/>
-      <c r="K171" s="96"/>
-      <c r="L171" s="96"/>
-      <c r="M171" s="96"/>
-      <c r="N171" s="96"/>
-      <c r="O171" s="96"/>
-      <c r="P171" s="96"/>
-      <c r="Q171" s="96"/>
-      <c r="R171" s="96"/>
-      <c r="S171" s="96"/>
-      <c r="T171" s="96"/>
-      <c r="U171" s="96"/>
-      <c r="V171" s="96"/>
-      <c r="W171" s="96"/>
-      <c r="X171" s="96"/>
-      <c r="Y171" s="96"/>
-      <c r="Z171" s="96"/>
-      <c r="AA171" s="96"/>
-      <c r="AB171" s="96"/>
-      <c r="AC171" s="96"/>
-      <c r="AD171" s="96"/>
-      <c r="AE171" s="97"/>
-      <c r="AF171" s="96"/>
-      <c r="AG171" s="96"/>
-      <c r="AH171" s="96"/>
-      <c r="AI171" s="96"/>
-      <c r="AJ171" s="148"/>
-      <c r="AK171" s="96"/>
-      <c r="AL171" s="96"/>
-      <c r="AM171" s="96"/>
-      <c r="AN171" s="96"/>
-      <c r="AO171" s="96"/>
-      <c r="AP171" s="96"/>
-      <c r="AQ171" s="96"/>
-      <c r="AR171" s="96"/>
-      <c r="AS171" s="96"/>
-      <c r="AT171" s="96"/>
-      <c r="AU171" s="96"/>
-      <c r="AV171" s="6"/>
-      <c r="AW171" s="7"/>
-    </row>
-    <row r="172" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A172" s="149"/>
-      <c r="B172" s="150"/>
-      <c r="C172" s="151"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="152"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2"/>
+      <c r="V171" s="2"/>
+      <c r="W171" s="2"/>
+      <c r="X171" s="2"/>
+      <c r="Y171" s="2"/>
+      <c r="Z171" s="2"/>
+      <c r="AA171" s="2"/>
+      <c r="AB171" s="2"/>
+      <c r="AC171" s="2"/>
+      <c r="AD171" s="2"/>
+      <c r="AE171" s="2"/>
+      <c r="AF171" s="2"/>
+      <c r="AG171" s="2"/>
+      <c r="AH171" s="2"/>
+      <c r="AI171" s="2"/>
+      <c r="AJ171" s="2"/>
+      <c r="AK171" s="2"/>
+      <c r="AL171" s="2"/>
+      <c r="AM171" s="2"/>
+      <c r="AN171" s="2"/>
+      <c r="AO171" s="2"/>
+      <c r="AP171" s="2"/>
+      <c r="AQ171" s="2"/>
+      <c r="AR171" s="2"/>
+      <c r="AS171" s="2"/>
+      <c r="AT171" s="2"/>
+      <c r="AU171" s="2"/>
+      <c r="AX171" s="2"/>
+    </row>
+    <row r="172" spans="1:50" ht="13.5" customHeight="1">
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -8877,111 +8843,57 @@
       <c r="AS172" s="2"/>
       <c r="AT172" s="2"/>
       <c r="AU172" s="2"/>
-      <c r="AV172" s="151"/>
-      <c r="AW172" s="153"/>
-    </row>
-    <row r="173" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
-      <c r="AB173" s="2"/>
-      <c r="AC173" s="2"/>
-      <c r="AD173" s="2"/>
-      <c r="AE173" s="2"/>
-      <c r="AF173" s="2"/>
-      <c r="AG173" s="2"/>
-      <c r="AH173" s="2"/>
-      <c r="AI173" s="2"/>
-      <c r="AJ173" s="2"/>
-      <c r="AK173" s="2"/>
-      <c r="AL173" s="2"/>
-      <c r="AM173" s="2"/>
-      <c r="AN173" s="2"/>
-      <c r="AO173" s="2"/>
-      <c r="AP173" s="2"/>
-      <c r="AQ173" s="2"/>
-      <c r="AR173" s="2"/>
-      <c r="AS173" s="2"/>
-      <c r="AT173" s="2"/>
-      <c r="AU173" s="2"/>
-      <c r="AX173" s="2"/>
-    </row>
-    <row r="174" spans="1:50" ht="13.5" customHeight="1">
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-      <c r="AB174" s="2"/>
-      <c r="AC174" s="2"/>
-      <c r="AD174" s="2"/>
-      <c r="AE174" s="2"/>
-      <c r="AF174" s="2"/>
-      <c r="AG174" s="2"/>
-      <c r="AH174" s="2"/>
-      <c r="AI174" s="2"/>
-      <c r="AJ174" s="2"/>
-      <c r="AK174" s="2"/>
-      <c r="AL174" s="2"/>
-      <c r="AM174" s="2"/>
-      <c r="AN174" s="2"/>
-      <c r="AO174" s="2"/>
-      <c r="AP174" s="2"/>
-      <c r="AQ174" s="2"/>
-      <c r="AR174" s="2"/>
-      <c r="AS174" s="2"/>
-      <c r="AT174" s="2"/>
-      <c r="AU174" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="E164:H164"/>
+    <mergeCell ref="E154:K154"/>
+    <mergeCell ref="L154:AU154"/>
+    <mergeCell ref="E155:K156"/>
+    <mergeCell ref="I162:AI162"/>
+    <mergeCell ref="AJ162:AT162"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="A121:I123"/>
+    <mergeCell ref="J121:O123"/>
+    <mergeCell ref="P121:U123"/>
+    <mergeCell ref="V121:Z122"/>
+    <mergeCell ref="AA121:AL122"/>
+    <mergeCell ref="V123:Z123"/>
+    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AO81:AQ81"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM82:AN82"/>
+    <mergeCell ref="AO82:AQ82"/>
+    <mergeCell ref="AR82:AS82"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="A81:I83"/>
+    <mergeCell ref="J81:O83"/>
+    <mergeCell ref="P81:U83"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="AA81:AL82"/>
+    <mergeCell ref="V83:Z83"/>
+    <mergeCell ref="AA83:AG83"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
     <mergeCell ref="V43:Z43"/>
     <mergeCell ref="AA43:AG43"/>
     <mergeCell ref="AH43:AL43"/>
@@ -8998,54 +8910,17 @@
     <mergeCell ref="AO41:AQ41"/>
     <mergeCell ref="AR41:AS41"/>
     <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="A81:I83"/>
-    <mergeCell ref="J81:O83"/>
-    <mergeCell ref="P81:U83"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="AA81:AL82"/>
-    <mergeCell ref="V83:Z83"/>
-    <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="E164:H164"/>
-    <mergeCell ref="E154:K154"/>
-    <mergeCell ref="L154:AU154"/>
-    <mergeCell ref="E155:K156"/>
-    <mergeCell ref="I162:AI162"/>
-    <mergeCell ref="AJ162:AT162"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="A121:I123"/>
-    <mergeCell ref="J121:O123"/>
-    <mergeCell ref="P121:U123"/>
-    <mergeCell ref="V121:Z122"/>
-    <mergeCell ref="AA121:AL122"/>
-    <mergeCell ref="V123:Z123"/>
-    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
